--- a/DataFileSamples/Geochemistry.xlsx
+++ b/DataFileSamples/Geochemistry.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cycleuser/Documents/GitHub/GeoPyTool/DataFileSamples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fred\Documents\GitHub\GeoPyTool\DataFileSamples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7D9E4A03-56DE-D647-9A7C-231FA2E2CFD2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD97EDF-560C-46ED-81D8-6CB52597B3F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="2055" windowWidth="12150" windowHeight="20955" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表3" sheetId="4" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterateCount="200" iterateDelta="9.9999999999999995E-7" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="136">
   <si>
     <t>Author</t>
   </si>
@@ -685,6 +685,18 @@
   </si>
   <si>
     <t>Total(wt%)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>K(ppm)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P(ppm)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ti(ppm)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -865,7 +877,7 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1174,71 +1186,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC47B8B1-FF18-6F43-9034-BB1C05C25552}">
-  <dimension ref="A1:BG27"/>
+  <dimension ref="A1:BJ27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.4609375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.4609375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.15234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.4609375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15" bestFit="1" customWidth="1"/>
-    <col min="39" max="41" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="16" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="15" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="54" max="55" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.84375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.3046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.69140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.69140625" customWidth="1"/>
+    <col min="12" max="12" width="21.69140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.15234375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.84375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.69140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.84375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.69140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.15234375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.3046875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="20.3046875" customWidth="1"/>
+    <col min="23" max="23" width="18.15234375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.84375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.84375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.4609375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.69140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.4609375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.15234375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.3046875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.69140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.69140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.3046875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.84375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.69140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.69140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.4609375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.69140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15" bestFit="1" customWidth="1"/>
+    <col min="42" max="44" width="15.15234375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14.84375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.69140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="16.15234375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15.3046875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="15.3046875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.84375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="15" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="16.4609375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15.69140625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15.3046875" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="15.15234375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="14.4609375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="15.15234375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="15.3046875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="9" customFormat="1" ht="21">
+    <row r="1" spans="1:62" s="9" customFormat="1" ht="20">
       <c r="A1" s="10" t="s">
         <v>78</v>
       </c>
@@ -1270,154 +1284,163 @@
         <v>121</v>
       </c>
       <c r="K1" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="W1" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="X1" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="Y1" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="Z1" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="AA1" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="AB1" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="AC1" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AD1" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AE1" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AF1" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AG1" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AH1" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AI1" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AJ1" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AK1" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="AI1" s="12" t="s">
+      <c r="AL1" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="AJ1" s="12" t="s">
+      <c r="AM1" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="AK1" s="12" t="s">
+      <c r="AN1" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="AL1" s="12" t="s">
+      <c r="AO1" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="AM1" s="12" t="s">
+      <c r="AP1" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="AN1" s="12" t="s">
+      <c r="AQ1" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="AO1" s="12" t="s">
+      <c r="AR1" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="AP1" s="12" t="s">
+      <c r="AS1" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="AQ1" s="12" t="s">
+      <c r="AT1" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="AR1" s="12" t="s">
+      <c r="AU1" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="AS1" s="12" t="s">
+      <c r="AV1" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="AT1" s="12" t="s">
+      <c r="AW1" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="AU1" s="12" t="s">
+      <c r="AX1" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="AV1" s="12" t="s">
+      <c r="AY1" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="AW1" s="12" t="s">
+      <c r="AZ1" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="AX1" s="12" t="s">
+      <c r="BA1" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="AY1" s="12" t="s">
+      <c r="BB1" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="AZ1" s="12" t="s">
+      <c r="BC1" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="BA1" s="12" t="s">
+      <c r="BD1" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="BB1" s="12" t="s">
+      <c r="BE1" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="BC1" s="12" t="s">
+      <c r="BF1" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="BD1" s="12" t="s">
+      <c r="BG1" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="BE1" s="12" t="s">
+      <c r="BH1" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="BF1" s="12" t="s">
+      <c r="BI1" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="BG1" s="12" t="s">
+      <c r="BJ1" s="12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:59" s="9" customFormat="1" ht="21">
+    <row r="2" spans="1:62" s="9" customFormat="1" ht="20.5">
       <c r="A2" s="7" t="s">
         <v>80</v>
       </c>
@@ -1449,154 +1472,166 @@
         <v>2.56</v>
       </c>
       <c r="K2" s="8">
+        <f>J2*0.599342898*10000</f>
+        <v>15343.1781888</v>
+      </c>
+      <c r="L2" s="8">
         <v>13.01</v>
       </c>
-      <c r="L2" s="8">
+      <c r="M2" s="8">
         <v>14.47</v>
       </c>
-      <c r="M2" s="8">
+      <c r="N2" s="8">
         <v>5.51</v>
       </c>
-      <c r="N2" s="8">
+      <c r="O2" s="8">
         <v>0.21</v>
       </c>
-      <c r="O2" s="8">
+      <c r="P2" s="8">
         <v>5.26</v>
       </c>
-      <c r="P2" s="8">
+      <c r="Q2" s="8">
         <v>8.35</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="R2" s="8">
         <v>1.88</v>
       </c>
-      <c r="R2" s="8">
+      <c r="S2" s="8">
         <v>0.72</v>
       </c>
-      <c r="S2" s="8">
+      <c r="T2" s="8">
         <v>0.23</v>
       </c>
-      <c r="T2" s="8">
+      <c r="U2" s="8">
+        <f>S2*0.830147777*10000</f>
+        <v>5977.0639943999995</v>
+      </c>
+      <c r="V2" s="8">
+        <f>T2*0.436420668*10000</f>
+        <v>1003.7675364000002</v>
+      </c>
+      <c r="W2" s="8">
         <v>5.05</v>
       </c>
-      <c r="U2" s="8">
+      <c r="X2" s="8">
         <v>99.91</v>
       </c>
-      <c r="V2" s="8">
+      <c r="Y2" s="8">
         <v>41.9</v>
       </c>
-      <c r="W2" s="8">
+      <c r="Z2" s="8">
         <v>15</v>
       </c>
-      <c r="X2" s="8">
+      <c r="AA2" s="8">
         <v>0.85</v>
       </c>
-      <c r="Y2" s="8">
+      <c r="AB2" s="8">
         <v>37.4</v>
       </c>
-      <c r="Z2" s="8">
+      <c r="AC2" s="8">
         <v>368</v>
       </c>
-      <c r="AA2" s="8">
+      <c r="AD2" s="8">
         <v>117</v>
       </c>
-      <c r="AB2" s="8">
+      <c r="AE2" s="8">
         <v>45.2</v>
       </c>
-      <c r="AC2" s="8">
+      <c r="AF2" s="8">
         <v>69.400000000000006</v>
       </c>
-      <c r="AD2" s="8">
+      <c r="AG2" s="8">
         <v>53.5</v>
       </c>
-      <c r="AE2" s="8">
+      <c r="AH2" s="8">
         <v>100</v>
       </c>
-      <c r="AF2" s="8">
+      <c r="AI2" s="8">
         <v>19.399999999999999</v>
       </c>
-      <c r="AG2" s="8">
+      <c r="AJ2" s="8">
         <v>18.399999999999999</v>
       </c>
-      <c r="AH2" s="8">
+      <c r="AK2" s="8">
         <v>357</v>
       </c>
-      <c r="AI2" s="8">
+      <c r="AL2" s="8">
         <v>29.7</v>
       </c>
-      <c r="AJ2" s="8">
+      <c r="AM2" s="8">
         <v>130</v>
       </c>
-      <c r="AK2" s="8">
+      <c r="AN2" s="8">
         <v>12.6</v>
       </c>
-      <c r="AL2" s="8">
+      <c r="AO2" s="8">
         <v>0.83</v>
       </c>
-      <c r="AM2" s="8">
+      <c r="AP2" s="8">
         <v>188</v>
       </c>
-      <c r="AN2" s="8">
+      <c r="AQ2" s="8">
         <v>11.4</v>
       </c>
-      <c r="AO2" s="8">
+      <c r="AR2" s="8">
         <v>28.2</v>
       </c>
-      <c r="AP2" s="8">
+      <c r="AS2" s="8">
         <v>3.95</v>
       </c>
-      <c r="AQ2" s="8">
+      <c r="AT2" s="8">
         <v>18.399999999999999</v>
       </c>
-      <c r="AR2" s="8">
+      <c r="AU2" s="8">
         <v>5.08</v>
       </c>
-      <c r="AS2" s="8">
+      <c r="AV2" s="8">
         <v>1.79</v>
       </c>
-      <c r="AT2" s="8">
+      <c r="AW2" s="8">
         <v>5.24</v>
       </c>
-      <c r="AU2" s="8">
+      <c r="AX2" s="8">
         <v>0.88</v>
       </c>
-      <c r="AV2" s="8">
+      <c r="AY2" s="8">
         <v>5.58</v>
       </c>
-      <c r="AW2" s="8">
+      <c r="AZ2" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AX2" s="8">
+      <c r="BA2" s="8">
         <v>2.96</v>
       </c>
-      <c r="AY2" s="8">
+      <c r="BB2" s="8">
         <v>0.44</v>
       </c>
-      <c r="AZ2" s="8">
+      <c r="BC2" s="8">
         <v>2.68</v>
       </c>
-      <c r="BA2" s="8">
+      <c r="BD2" s="8">
         <v>0.39</v>
       </c>
-      <c r="BB2" s="8">
+      <c r="BE2" s="8">
         <v>3.38</v>
       </c>
-      <c r="BC2" s="8">
+      <c r="BF2" s="8">
         <v>0.77</v>
       </c>
-      <c r="BD2" s="8">
+      <c r="BG2" s="8">
         <v>0.06</v>
       </c>
-      <c r="BE2" s="8">
+      <c r="BH2" s="8">
         <v>3.17</v>
       </c>
-      <c r="BF2" s="8">
+      <c r="BI2" s="8">
         <v>1.85</v>
       </c>
-      <c r="BG2" s="8">
+      <c r="BJ2" s="8">
         <v>0.41</v>
       </c>
     </row>
-    <row r="3" spans="1:59" s="9" customFormat="1" ht="21">
+    <row r="3" spans="1:62" s="9" customFormat="1" ht="20.5">
       <c r="A3" s="7" t="s">
         <v>80</v>
       </c>
@@ -1628,154 +1663,166 @@
         <v>2.25</v>
       </c>
       <c r="K3" s="8">
+        <f t="shared" ref="K3:K27" si="0">J3*0.599342898*10000</f>
+        <v>13485.215204999999</v>
+      </c>
+      <c r="L3" s="8">
         <v>13.42</v>
       </c>
-      <c r="L3" s="8">
+      <c r="M3" s="8">
         <v>12.71</v>
       </c>
-      <c r="M3" s="8">
+      <c r="N3" s="8">
         <v>9.11</v>
       </c>
-      <c r="N3" s="8">
+      <c r="O3" s="8">
         <v>0.19</v>
       </c>
-      <c r="O3" s="8">
+      <c r="P3" s="8">
         <v>5.37</v>
       </c>
-      <c r="P3" s="8">
+      <c r="Q3" s="8">
         <v>10.14</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="R3" s="8">
         <v>2.44</v>
       </c>
-      <c r="R3" s="8">
+      <c r="S3" s="8">
         <v>0.77</v>
       </c>
-      <c r="S3" s="8">
+      <c r="T3" s="8">
         <v>0.24</v>
       </c>
-      <c r="T3" s="8">
+      <c r="U3" s="8">
+        <f t="shared" ref="U3:U27" si="1">S3*0.830147777*10000</f>
+        <v>6392.1378828999996</v>
+      </c>
+      <c r="V3" s="8">
+        <f t="shared" ref="V3:V27" si="2">T3*0.436420668*10000</f>
+        <v>1047.4096032</v>
+      </c>
+      <c r="W3" s="8">
         <v>1.89</v>
       </c>
-      <c r="U3" s="8">
+      <c r="X3" s="8">
         <v>99.97</v>
       </c>
-      <c r="V3" s="8">
+      <c r="Y3" s="8">
         <v>45.6</v>
       </c>
-      <c r="W3" s="8">
+      <c r="Z3" s="8">
         <v>19.600000000000001</v>
       </c>
-      <c r="X3" s="8">
+      <c r="AA3" s="8">
         <v>1</v>
       </c>
-      <c r="Y3" s="8">
+      <c r="AB3" s="8">
         <v>43.2</v>
       </c>
-      <c r="Z3" s="8">
+      <c r="AC3" s="8">
         <v>357</v>
       </c>
-      <c r="AA3" s="8">
+      <c r="AD3" s="8">
         <v>49</v>
       </c>
-      <c r="AB3" s="8">
+      <c r="AE3" s="8">
         <v>43.7</v>
       </c>
-      <c r="AC3" s="8">
+      <c r="AF3" s="8">
         <v>39.200000000000003</v>
       </c>
-      <c r="AD3" s="8">
+      <c r="AG3" s="8">
         <v>32.799999999999997</v>
       </c>
-      <c r="AE3" s="8">
+      <c r="AH3" s="8">
         <v>96.8</v>
       </c>
-      <c r="AF3" s="8">
+      <c r="AI3" s="8">
         <v>21.8</v>
       </c>
-      <c r="AG3" s="8">
+      <c r="AJ3" s="8">
         <v>21.5</v>
       </c>
-      <c r="AH3" s="8">
+      <c r="AK3" s="8">
         <v>305</v>
       </c>
-      <c r="AI3" s="8">
+      <c r="AL3" s="8">
         <v>36.1</v>
       </c>
-      <c r="AJ3" s="8">
+      <c r="AM3" s="8">
         <v>157</v>
       </c>
-      <c r="AK3" s="8">
+      <c r="AN3" s="8">
         <v>13.5</v>
       </c>
-      <c r="AL3" s="8">
+      <c r="AO3" s="8">
         <v>0.49</v>
       </c>
-      <c r="AM3" s="8">
+      <c r="AP3" s="8">
         <v>171</v>
       </c>
-      <c r="AN3" s="8">
+      <c r="AQ3" s="8">
         <v>14</v>
       </c>
-      <c r="AO3" s="8">
+      <c r="AR3" s="8">
         <v>34.9</v>
       </c>
-      <c r="AP3" s="8">
+      <c r="AS3" s="8">
         <v>4.83</v>
       </c>
-      <c r="AQ3" s="8">
+      <c r="AT3" s="8">
         <v>22.3</v>
       </c>
-      <c r="AR3" s="8">
+      <c r="AU3" s="8">
         <v>5.8</v>
       </c>
-      <c r="AS3" s="8">
+      <c r="AV3" s="8">
         <v>1.97</v>
       </c>
-      <c r="AT3" s="8">
+      <c r="AW3" s="8">
         <v>6.49</v>
       </c>
-      <c r="AU3" s="8">
+      <c r="AX3" s="8">
         <v>1.08</v>
       </c>
-      <c r="AV3" s="8">
+      <c r="AY3" s="8">
         <v>6.54</v>
       </c>
-      <c r="AW3" s="8">
+      <c r="AZ3" s="8">
         <v>1.28</v>
       </c>
-      <c r="AX3" s="8">
+      <c r="BA3" s="8">
         <v>3.56</v>
       </c>
-      <c r="AY3" s="8">
+      <c r="BB3" s="8">
         <v>0.51</v>
       </c>
-      <c r="AZ3" s="8">
+      <c r="BC3" s="8">
         <v>3.11</v>
       </c>
-      <c r="BA3" s="8">
+      <c r="BD3" s="8">
         <v>0.47</v>
       </c>
-      <c r="BB3" s="8">
+      <c r="BE3" s="8">
         <v>4.05</v>
       </c>
-      <c r="BC3" s="8">
+      <c r="BF3" s="8">
         <v>0.84</v>
       </c>
-      <c r="BD3" s="8">
+      <c r="BG3" s="8">
         <v>6.3E-2</v>
       </c>
-      <c r="BE3" s="8">
+      <c r="BH3" s="8">
         <v>2.2200000000000002</v>
       </c>
-      <c r="BF3" s="8">
+      <c r="BI3" s="8">
         <v>2.2599999999999998</v>
       </c>
-      <c r="BG3" s="8">
+      <c r="BJ3" s="8">
         <v>0.46</v>
       </c>
     </row>
-    <row r="4" spans="1:59" s="9" customFormat="1" ht="21">
+    <row r="4" spans="1:62" s="9" customFormat="1" ht="20.5">
       <c r="A4" s="7" t="s">
         <v>80</v>
       </c>
@@ -1807,154 +1854,166 @@
         <v>3.83</v>
       </c>
       <c r="K4" s="8">
+        <f t="shared" si="0"/>
+        <v>22954.832993399999</v>
+      </c>
+      <c r="L4" s="8">
         <v>11.8</v>
       </c>
-      <c r="L4" s="8">
+      <c r="M4" s="8">
         <v>18.190000000000001</v>
       </c>
-      <c r="M4" s="8">
+      <c r="N4" s="8">
         <v>7.83</v>
       </c>
-      <c r="N4" s="8">
+      <c r="O4" s="8">
         <v>0.24</v>
       </c>
-      <c r="O4" s="8">
+      <c r="P4" s="8">
         <v>4.7</v>
       </c>
-      <c r="P4" s="8">
+      <c r="Q4" s="8">
         <v>8.52</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="R4" s="8">
         <v>2.29</v>
       </c>
-      <c r="R4" s="8">
+      <c r="S4" s="8">
         <v>0.73</v>
       </c>
-      <c r="S4" s="8">
+      <c r="T4" s="8">
         <v>0.3</v>
       </c>
-      <c r="T4" s="8">
+      <c r="U4" s="8">
+        <f t="shared" si="1"/>
+        <v>6060.0787720999997</v>
+      </c>
+      <c r="V4" s="8">
+        <f t="shared" si="2"/>
+        <v>1309.2620039999999</v>
+      </c>
+      <c r="W4" s="8">
         <v>1.95</v>
       </c>
-      <c r="U4" s="8">
+      <c r="X4" s="8">
         <v>99.99</v>
       </c>
-      <c r="V4" s="8">
+      <c r="Y4" s="8">
         <v>33.9</v>
       </c>
-      <c r="W4" s="8">
+      <c r="Z4" s="8">
         <v>24.1</v>
       </c>
-      <c r="X4" s="8">
+      <c r="AA4" s="8">
         <v>1.0900000000000001</v>
       </c>
-      <c r="Y4" s="8">
+      <c r="AB4" s="8">
         <v>39.1</v>
       </c>
-      <c r="Z4" s="8">
+      <c r="AC4" s="8">
         <v>546</v>
       </c>
-      <c r="AA4" s="8">
+      <c r="AD4" s="8">
         <v>1.4</v>
       </c>
-      <c r="AB4" s="8">
+      <c r="AE4" s="8">
         <v>48.3</v>
       </c>
-      <c r="AC4" s="8">
+      <c r="AF4" s="8">
         <v>16.8</v>
       </c>
-      <c r="AD4" s="8">
+      <c r="AG4" s="8">
         <v>43.8</v>
       </c>
-      <c r="AE4" s="8">
+      <c r="AH4" s="8">
         <v>125</v>
       </c>
-      <c r="AF4" s="8">
+      <c r="AI4" s="8">
         <v>22.4</v>
       </c>
-      <c r="AG4" s="8">
+      <c r="AJ4" s="8">
         <v>19</v>
       </c>
-      <c r="AH4" s="8">
+      <c r="AK4" s="8">
         <v>219</v>
       </c>
-      <c r="AI4" s="8">
+      <c r="AL4" s="8">
         <v>38</v>
       </c>
-      <c r="AJ4" s="8">
+      <c r="AM4" s="8">
         <v>173</v>
-      </c>
-      <c r="AK4" s="8">
-        <v>16.3</v>
-      </c>
-      <c r="AL4" s="8">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="AM4" s="8">
-        <v>116</v>
       </c>
       <c r="AN4" s="8">
         <v>16.3</v>
       </c>
       <c r="AO4" s="8">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AP4" s="8">
+        <v>116</v>
+      </c>
+      <c r="AQ4" s="8">
+        <v>16.3</v>
+      </c>
+      <c r="AR4" s="8">
         <v>38.200000000000003</v>
       </c>
-      <c r="AP4" s="8">
+      <c r="AS4" s="8">
         <v>5.25</v>
       </c>
-      <c r="AQ4" s="8">
+      <c r="AT4" s="8">
         <v>24.2</v>
       </c>
-      <c r="AR4" s="8">
+      <c r="AU4" s="8">
         <v>6.47</v>
       </c>
-      <c r="AS4" s="8">
+      <c r="AV4" s="8">
         <v>2.33</v>
       </c>
-      <c r="AT4" s="8">
+      <c r="AW4" s="8">
         <v>7.01</v>
       </c>
-      <c r="AU4" s="8">
+      <c r="AX4" s="8">
         <v>1.1599999999999999</v>
       </c>
-      <c r="AV4" s="8">
+      <c r="AY4" s="8">
         <v>6.87</v>
       </c>
-      <c r="AW4" s="8">
+      <c r="AZ4" s="8">
         <v>1.4</v>
       </c>
-      <c r="AX4" s="8">
+      <c r="BA4" s="8">
         <v>3.85</v>
       </c>
-      <c r="AY4" s="8">
+      <c r="BB4" s="8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AZ4" s="8">
+      <c r="BC4" s="8">
         <v>3.33</v>
       </c>
-      <c r="BA4" s="8">
+      <c r="BD4" s="8">
         <v>0.5</v>
       </c>
-      <c r="BB4" s="8">
+      <c r="BE4" s="8">
         <v>4.47</v>
       </c>
-      <c r="BC4" s="8">
+      <c r="BF4" s="8">
         <v>0.98</v>
       </c>
-      <c r="BD4" s="8">
+      <c r="BG4" s="8">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="BE4" s="8">
+      <c r="BH4" s="8">
         <v>2.62</v>
       </c>
-      <c r="BF4" s="8">
+      <c r="BI4" s="8">
         <v>2.36</v>
       </c>
-      <c r="BG4" s="8">
+      <c r="BJ4" s="8">
         <v>0.52</v>
       </c>
     </row>
-    <row r="5" spans="1:59" s="9" customFormat="1" ht="21">
+    <row r="5" spans="1:62" s="9" customFormat="1" ht="20.5">
       <c r="A5" s="7" t="s">
         <v>80</v>
       </c>
@@ -1986,154 +2045,166 @@
         <v>4.2300000000000004</v>
       </c>
       <c r="K5" s="8">
+        <f t="shared" si="0"/>
+        <v>25352.204585399999</v>
+      </c>
+      <c r="L5" s="8">
         <v>11.9</v>
       </c>
-      <c r="L5" s="8">
+      <c r="M5" s="8">
         <v>16.670000000000002</v>
       </c>
-      <c r="M5" s="8">
+      <c r="N5" s="8">
         <v>5.47</v>
       </c>
-      <c r="N5" s="8">
+      <c r="O5" s="8">
         <v>0.21</v>
       </c>
-      <c r="O5" s="8">
+      <c r="P5" s="8">
         <v>3.5</v>
       </c>
-      <c r="P5" s="8">
+      <c r="Q5" s="8">
         <v>6.95</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="R5" s="8">
         <v>2.59</v>
       </c>
-      <c r="R5" s="8">
+      <c r="S5" s="8">
         <v>1.38</v>
       </c>
-      <c r="S5" s="8">
+      <c r="T5" s="8">
         <v>0.56999999999999995</v>
       </c>
-      <c r="T5" s="8">
+      <c r="U5" s="8">
+        <f t="shared" si="1"/>
+        <v>11456.039322599998</v>
+      </c>
+      <c r="V5" s="8">
+        <f t="shared" si="2"/>
+        <v>2487.5978076000001</v>
+      </c>
+      <c r="W5" s="8">
         <v>2.81</v>
       </c>
-      <c r="U5" s="8">
+      <c r="X5" s="8">
         <v>99.96</v>
       </c>
-      <c r="V5" s="8">
+      <c r="Y5" s="8">
         <v>29.4</v>
       </c>
-      <c r="W5" s="8">
+      <c r="Z5" s="8">
         <v>24</v>
       </c>
-      <c r="X5" s="8">
+      <c r="AA5" s="8">
         <v>1.82</v>
       </c>
-      <c r="Y5" s="8">
+      <c r="AB5" s="8">
         <v>32.6</v>
       </c>
-      <c r="Z5" s="8">
+      <c r="AC5" s="8">
         <v>424</v>
       </c>
-      <c r="AA5" s="8">
+      <c r="AD5" s="8">
         <v>7.83</v>
       </c>
-      <c r="AB5" s="8">
+      <c r="AE5" s="8">
         <v>39.299999999999997</v>
       </c>
-      <c r="AC5" s="8">
+      <c r="AF5" s="8">
         <v>21.3</v>
       </c>
-      <c r="AD5" s="8">
+      <c r="AG5" s="8">
         <v>32</v>
       </c>
-      <c r="AE5" s="8">
+      <c r="AH5" s="8">
         <v>197</v>
       </c>
-      <c r="AF5" s="8">
+      <c r="AI5" s="8">
         <v>22.6</v>
       </c>
-      <c r="AG5" s="8">
+      <c r="AJ5" s="8">
         <v>46</v>
       </c>
-      <c r="AH5" s="8">
+      <c r="AK5" s="8">
         <v>336</v>
       </c>
-      <c r="AI5" s="8">
+      <c r="AL5" s="8">
         <v>50.3</v>
       </c>
-      <c r="AJ5" s="8">
+      <c r="AM5" s="8">
         <v>261</v>
       </c>
-      <c r="AK5" s="8">
+      <c r="AN5" s="8">
         <v>28.5</v>
       </c>
-      <c r="AL5" s="8">
+      <c r="AO5" s="8">
         <v>1.53</v>
       </c>
-      <c r="AM5" s="8">
+      <c r="AP5" s="8">
         <v>401</v>
       </c>
-      <c r="AN5" s="8">
+      <c r="AQ5" s="8">
         <v>32.5</v>
       </c>
-      <c r="AO5" s="8">
+      <c r="AR5" s="8">
         <v>68.3</v>
       </c>
-      <c r="AP5" s="8">
+      <c r="AS5" s="8">
         <v>9.25</v>
       </c>
-      <c r="AQ5" s="8">
+      <c r="AT5" s="8">
         <v>40.6</v>
       </c>
-      <c r="AR5" s="8">
+      <c r="AU5" s="8">
         <v>9.84</v>
       </c>
-      <c r="AS5" s="8">
+      <c r="AV5" s="8">
         <v>3.22</v>
       </c>
-      <c r="AT5" s="8">
+      <c r="AW5" s="8">
         <v>10.199999999999999</v>
       </c>
-      <c r="AU5" s="8">
+      <c r="AX5" s="8">
         <v>1.57</v>
       </c>
-      <c r="AV5" s="8">
+      <c r="AY5" s="8">
         <v>9.4700000000000006</v>
       </c>
-      <c r="AW5" s="8">
+      <c r="AZ5" s="8">
         <v>1.82</v>
       </c>
-      <c r="AX5" s="8">
+      <c r="BA5" s="8">
         <v>4.97</v>
       </c>
-      <c r="AY5" s="8">
+      <c r="BB5" s="8">
         <v>0.7</v>
       </c>
-      <c r="AZ5" s="8">
+      <c r="BC5" s="8">
         <v>4.37</v>
       </c>
-      <c r="BA5" s="8">
+      <c r="BD5" s="8">
         <v>0.63</v>
       </c>
-      <c r="BB5" s="8">
+      <c r="BE5" s="8">
         <v>6.56</v>
       </c>
-      <c r="BC5" s="8">
+      <c r="BF5" s="8">
         <v>1.69</v>
       </c>
-      <c r="BD5" s="8">
+      <c r="BG5" s="8">
         <v>0.22</v>
       </c>
-      <c r="BE5" s="8">
+      <c r="BH5" s="8">
         <v>14.1</v>
       </c>
-      <c r="BF5" s="8">
+      <c r="BI5" s="8">
         <v>5.55</v>
       </c>
-      <c r="BG5" s="8">
+      <c r="BJ5" s="8">
         <v>1.23</v>
       </c>
     </row>
-    <row r="6" spans="1:59" s="9" customFormat="1" ht="21">
+    <row r="6" spans="1:62" s="9" customFormat="1" ht="20.5">
       <c r="A6" s="7" t="s">
         <v>80</v>
       </c>
@@ -2165,154 +2236,166 @@
         <v>4.05</v>
       </c>
       <c r="K6" s="8">
+        <f t="shared" si="0"/>
+        <v>24273.387369</v>
+      </c>
+      <c r="L6" s="8">
         <v>12.16</v>
       </c>
-      <c r="L6" s="8">
+      <c r="M6" s="8">
         <v>17.43</v>
       </c>
-      <c r="M6" s="8">
+      <c r="N6" s="8">
         <v>8.9499999999999993</v>
       </c>
-      <c r="N6" s="8">
+      <c r="O6" s="8">
         <v>0.19</v>
       </c>
-      <c r="O6" s="8">
+      <c r="P6" s="8">
         <v>3.82</v>
       </c>
-      <c r="P6" s="8">
+      <c r="Q6" s="8">
         <v>5.98</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="R6" s="8">
         <v>3.04</v>
       </c>
-      <c r="R6" s="8">
+      <c r="S6" s="8">
         <v>0.71</v>
       </c>
-      <c r="S6" s="8">
+      <c r="T6" s="8">
         <v>0.42</v>
       </c>
-      <c r="T6" s="8">
+      <c r="U6" s="8">
+        <f t="shared" si="1"/>
+        <v>5894.0492166999993</v>
+      </c>
+      <c r="V6" s="8">
+        <f t="shared" si="2"/>
+        <v>1832.9668056</v>
+      </c>
+      <c r="W6" s="8">
         <v>4.25</v>
       </c>
-      <c r="U6" s="8">
+      <c r="X6" s="8">
         <v>99.96</v>
       </c>
-      <c r="V6" s="8">
+      <c r="Y6" s="8">
         <v>30.3</v>
       </c>
-      <c r="W6" s="8">
+      <c r="Z6" s="8">
         <v>22.3</v>
       </c>
-      <c r="X6" s="8">
+      <c r="AA6" s="8">
         <v>1.33</v>
       </c>
-      <c r="Y6" s="8">
+      <c r="AB6" s="8">
         <v>32.5</v>
       </c>
-      <c r="Z6" s="8">
+      <c r="AC6" s="8">
         <v>406</v>
       </c>
-      <c r="AA6" s="8">
+      <c r="AD6" s="8">
         <v>42.3</v>
       </c>
-      <c r="AB6" s="8">
+      <c r="AE6" s="8">
         <v>40.4</v>
       </c>
-      <c r="AC6" s="8">
+      <c r="AF6" s="8">
         <v>36.299999999999997</v>
       </c>
-      <c r="AD6" s="8">
+      <c r="AG6" s="8">
         <v>26.1</v>
       </c>
-      <c r="AE6" s="8">
+      <c r="AH6" s="8">
         <v>109</v>
       </c>
-      <c r="AF6" s="8">
+      <c r="AI6" s="8">
         <v>21.9</v>
       </c>
-      <c r="AG6" s="8">
+      <c r="AJ6" s="8">
         <v>28.5</v>
       </c>
-      <c r="AH6" s="8">
+      <c r="AK6" s="8">
         <v>432</v>
       </c>
-      <c r="AI6" s="8">
+      <c r="AL6" s="8">
         <v>45.8</v>
       </c>
-      <c r="AJ6" s="8">
+      <c r="AM6" s="8">
         <v>223</v>
       </c>
-      <c r="AK6" s="8">
+      <c r="AN6" s="8">
         <v>23.4</v>
       </c>
-      <c r="AL6" s="8">
+      <c r="AO6" s="8">
         <v>1.23</v>
       </c>
-      <c r="AM6" s="8">
+      <c r="AP6" s="8">
         <v>161</v>
       </c>
-      <c r="AN6" s="8">
+      <c r="AQ6" s="8">
         <v>22.1</v>
       </c>
-      <c r="AO6" s="8">
+      <c r="AR6" s="8">
         <v>48.9</v>
       </c>
-      <c r="AP6" s="8">
+      <c r="AS6" s="8">
         <v>6.9</v>
       </c>
-      <c r="AQ6" s="8">
+      <c r="AT6" s="8">
         <v>30.9</v>
       </c>
-      <c r="AR6" s="8">
+      <c r="AU6" s="8">
         <v>7.69</v>
       </c>
-      <c r="AS6" s="8">
+      <c r="AV6" s="8">
         <v>2.73</v>
       </c>
-      <c r="AT6" s="8">
+      <c r="AW6" s="8">
         <v>8.42</v>
       </c>
-      <c r="AU6" s="8">
+      <c r="AX6" s="8">
         <v>1.38</v>
       </c>
-      <c r="AV6" s="8">
+      <c r="AY6" s="8">
         <v>8.42</v>
       </c>
-      <c r="AW6" s="8">
+      <c r="AZ6" s="8">
         <v>1.65</v>
       </c>
-      <c r="AX6" s="8">
+      <c r="BA6" s="8">
         <v>4.6100000000000003</v>
       </c>
-      <c r="AY6" s="8">
+      <c r="BB6" s="8">
         <v>0.65</v>
       </c>
-      <c r="AZ6" s="8">
+      <c r="BC6" s="8">
         <v>3.96</v>
       </c>
-      <c r="BA6" s="8">
+      <c r="BD6" s="8">
         <v>0.57999999999999996</v>
       </c>
-      <c r="BB6" s="8">
+      <c r="BE6" s="8">
         <v>5.76</v>
       </c>
-      <c r="BC6" s="8">
+      <c r="BF6" s="8">
         <v>1.32</v>
       </c>
-      <c r="BD6" s="8">
+      <c r="BG6" s="8">
         <v>0.13</v>
       </c>
-      <c r="BE6" s="8">
+      <c r="BH6" s="8">
         <v>1.48</v>
       </c>
-      <c r="BF6" s="8">
+      <c r="BI6" s="8">
         <v>3.63</v>
       </c>
-      <c r="BG6" s="8">
+      <c r="BJ6" s="8">
         <v>0.78</v>
       </c>
     </row>
-    <row r="7" spans="1:59" s="9" customFormat="1" ht="21">
+    <row r="7" spans="1:62" s="9" customFormat="1" ht="20.5">
       <c r="A7" s="7" t="s">
         <v>80</v>
       </c>
@@ -2344,154 +2427,166 @@
         <v>2.17</v>
       </c>
       <c r="K7" s="8">
+        <f t="shared" si="0"/>
+        <v>13005.740886599999</v>
+      </c>
+      <c r="L7" s="8">
         <v>12.34</v>
       </c>
-      <c r="L7" s="8">
+      <c r="M7" s="8">
         <v>14.3</v>
       </c>
-      <c r="M7" s="8">
+      <c r="N7" s="8">
         <v>2.15</v>
       </c>
-      <c r="N7" s="8">
+      <c r="O7" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O7" s="8">
+      <c r="P7" s="8">
         <v>1.26</v>
       </c>
-      <c r="P7" s="8">
+      <c r="Q7" s="8">
         <v>2.92</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="R7" s="8">
         <v>2.57</v>
       </c>
-      <c r="R7" s="8">
+      <c r="S7" s="8">
         <v>1.91</v>
       </c>
-      <c r="S7" s="8">
+      <c r="T7" s="8">
         <v>0.79</v>
       </c>
-      <c r="T7" s="8">
+      <c r="U7" s="8">
+        <f t="shared" si="1"/>
+        <v>15855.822540699999</v>
+      </c>
+      <c r="V7" s="8">
+        <f t="shared" si="2"/>
+        <v>3447.7232772000007</v>
+      </c>
+      <c r="W7" s="8">
         <v>6.78</v>
       </c>
-      <c r="U7" s="8">
+      <c r="X7" s="8">
         <v>99.94</v>
       </c>
-      <c r="V7" s="8">
+      <c r="Y7" s="8">
         <v>14.9</v>
       </c>
-      <c r="W7" s="8">
+      <c r="Z7" s="8">
         <v>17.2</v>
       </c>
-      <c r="X7" s="8">
+      <c r="AA7" s="8">
         <v>2.56</v>
       </c>
-      <c r="Y7" s="8">
+      <c r="AB7" s="8">
         <v>18.3</v>
       </c>
-      <c r="Z7" s="8">
+      <c r="AC7" s="8">
         <v>45.9</v>
       </c>
-      <c r="AA7" s="8">
+      <c r="AD7" s="8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AB7" s="8">
+      <c r="AE7" s="8">
         <v>16.899999999999999</v>
       </c>
-      <c r="AC7" s="8">
+      <c r="AF7" s="8">
         <v>0.51</v>
       </c>
-      <c r="AD7" s="8">
+      <c r="AG7" s="8">
         <v>7.09</v>
       </c>
-      <c r="AE7" s="8">
+      <c r="AH7" s="8">
         <v>138</v>
       </c>
-      <c r="AF7" s="8">
+      <c r="AI7" s="8">
         <v>25</v>
       </c>
-      <c r="AG7" s="8">
+      <c r="AJ7" s="8">
         <v>62.1</v>
       </c>
-      <c r="AH7" s="8">
+      <c r="AK7" s="8">
         <v>198</v>
       </c>
-      <c r="AI7" s="8">
+      <c r="AL7" s="8">
         <v>65.400000000000006</v>
       </c>
-      <c r="AJ7" s="8">
+      <c r="AM7" s="8">
         <v>424</v>
       </c>
-      <c r="AK7" s="8">
+      <c r="AN7" s="8">
         <v>31.5</v>
       </c>
-      <c r="AL7" s="8">
+      <c r="AO7" s="8">
         <v>1.88</v>
       </c>
-      <c r="AM7" s="8">
+      <c r="AP7" s="8">
         <v>377</v>
       </c>
-      <c r="AN7" s="8">
+      <c r="AQ7" s="8">
         <v>41.9</v>
       </c>
-      <c r="AO7" s="8">
+      <c r="AR7" s="8">
         <v>88.2</v>
       </c>
-      <c r="AP7" s="8">
+      <c r="AS7" s="8">
         <v>12.3</v>
       </c>
-      <c r="AQ7" s="8">
+      <c r="AT7" s="8">
         <v>53.6</v>
       </c>
-      <c r="AR7" s="8">
+      <c r="AU7" s="8">
         <v>12.5</v>
       </c>
-      <c r="AS7" s="8">
+      <c r="AV7" s="8">
         <v>3.78</v>
       </c>
-      <c r="AT7" s="8">
+      <c r="AW7" s="8">
         <v>13.1</v>
       </c>
-      <c r="AU7" s="8">
+      <c r="AX7" s="8">
         <v>2.1</v>
       </c>
-      <c r="AV7" s="8">
+      <c r="AY7" s="8">
         <v>12.6</v>
       </c>
-      <c r="AW7" s="8">
+      <c r="AZ7" s="8">
         <v>2.4700000000000002</v>
       </c>
-      <c r="AX7" s="8">
+      <c r="BA7" s="8">
         <v>6.57</v>
       </c>
-      <c r="AY7" s="8">
+      <c r="BB7" s="8">
         <v>0.93</v>
       </c>
-      <c r="AZ7" s="8">
+      <c r="BC7" s="8">
         <v>5.81</v>
       </c>
-      <c r="BA7" s="8">
+      <c r="BD7" s="8">
         <v>0.85</v>
       </c>
-      <c r="BB7" s="8">
+      <c r="BE7" s="8">
         <v>10.6</v>
       </c>
-      <c r="BC7" s="8">
+      <c r="BF7" s="8">
         <v>1.68</v>
       </c>
-      <c r="BD7" s="8">
+      <c r="BG7" s="8">
         <v>0.25</v>
       </c>
-      <c r="BE7" s="8">
+      <c r="BH7" s="8">
         <v>7.1</v>
       </c>
-      <c r="BF7" s="8">
+      <c r="BI7" s="8">
         <v>9.91</v>
       </c>
-      <c r="BG7" s="8">
+      <c r="BJ7" s="8">
         <v>1.98</v>
       </c>
     </row>
-    <row r="8" spans="1:59" s="9" customFormat="1" ht="21">
+    <row r="8" spans="1:62" s="9" customFormat="1" ht="20.5">
       <c r="A8" s="7" t="s">
         <v>80</v>
       </c>
@@ -2523,154 +2618,166 @@
         <v>3.71</v>
       </c>
       <c r="K8" s="8">
+        <f t="shared" si="0"/>
+        <v>22235.621515799998</v>
+      </c>
+      <c r="L8" s="8">
         <v>11.98</v>
       </c>
-      <c r="L8" s="8">
+      <c r="M8" s="8">
         <v>17.010000000000002</v>
       </c>
-      <c r="M8" s="8">
+      <c r="N8" s="8">
         <v>10.39</v>
       </c>
-      <c r="N8" s="8">
+      <c r="O8" s="8">
         <v>0.24</v>
       </c>
-      <c r="O8" s="8">
+      <c r="P8" s="8">
         <v>3.27</v>
       </c>
-      <c r="P8" s="8">
+      <c r="Q8" s="8">
         <v>6.28</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="R8" s="8">
         <v>2.75</v>
       </c>
-      <c r="R8" s="8">
+      <c r="S8" s="8">
         <v>0.84</v>
       </c>
-      <c r="S8" s="8">
+      <c r="T8" s="8">
         <v>0.42</v>
       </c>
-      <c r="T8" s="8">
+      <c r="U8" s="8">
+        <f t="shared" si="1"/>
+        <v>6973.2413267999991</v>
+      </c>
+      <c r="V8" s="8">
+        <f t="shared" si="2"/>
+        <v>1832.9668056</v>
+      </c>
+      <c r="W8" s="8">
         <v>2.58</v>
       </c>
-      <c r="U8" s="8">
+      <c r="X8" s="8">
         <v>100</v>
       </c>
-      <c r="V8" s="8">
+      <c r="Y8" s="8">
         <v>27.6</v>
       </c>
-      <c r="W8" s="8">
+      <c r="Z8" s="8">
         <v>20.2</v>
       </c>
-      <c r="X8" s="8">
+      <c r="AA8" s="8">
         <v>1.47</v>
       </c>
-      <c r="Y8" s="8">
+      <c r="AB8" s="8">
         <v>35.799999999999997</v>
       </c>
-      <c r="Z8" s="8">
+      <c r="AC8" s="8">
         <v>254</v>
       </c>
-      <c r="AA8" s="8">
+      <c r="AD8" s="8">
         <v>0.53</v>
       </c>
-      <c r="AB8" s="8">
+      <c r="AE8" s="8">
         <v>37.799999999999997</v>
       </c>
-      <c r="AC8" s="8">
+      <c r="AF8" s="8">
         <v>0.76</v>
       </c>
-      <c r="AD8" s="8">
+      <c r="AG8" s="8">
         <v>5.83</v>
       </c>
-      <c r="AE8" s="8">
+      <c r="AH8" s="8">
         <v>137</v>
       </c>
-      <c r="AF8" s="8">
+      <c r="AI8" s="8">
         <v>24.2</v>
       </c>
-      <c r="AG8" s="8">
+      <c r="AJ8" s="8">
         <v>21.2</v>
       </c>
-      <c r="AH8" s="8">
+      <c r="AK8" s="8">
         <v>199</v>
       </c>
-      <c r="AI8" s="8">
+      <c r="AL8" s="8">
         <v>52.6</v>
       </c>
-      <c r="AJ8" s="8">
+      <c r="AM8" s="8">
         <v>256</v>
       </c>
-      <c r="AK8" s="8">
+      <c r="AN8" s="8">
         <v>26.3</v>
       </c>
-      <c r="AL8" s="8">
+      <c r="AO8" s="8">
         <v>1.1200000000000001</v>
       </c>
-      <c r="AM8" s="8">
+      <c r="AP8" s="8">
         <v>138</v>
       </c>
-      <c r="AN8" s="8">
+      <c r="AQ8" s="8">
         <v>24.8</v>
       </c>
-      <c r="AO8" s="8">
+      <c r="AR8" s="8">
         <v>57.2</v>
       </c>
-      <c r="AP8" s="8">
+      <c r="AS8" s="8">
         <v>7.78</v>
       </c>
-      <c r="AQ8" s="8">
+      <c r="AT8" s="8">
         <v>35.4</v>
       </c>
-      <c r="AR8" s="8">
+      <c r="AU8" s="8">
         <v>9.27</v>
       </c>
-      <c r="AS8" s="8">
+      <c r="AV8" s="8">
         <v>3.05</v>
       </c>
-      <c r="AT8" s="8">
+      <c r="AW8" s="8">
         <v>10</v>
       </c>
-      <c r="AU8" s="8">
+      <c r="AX8" s="8">
         <v>1.59</v>
       </c>
-      <c r="AV8" s="8">
+      <c r="AY8" s="8">
         <v>9.94</v>
       </c>
-      <c r="AW8" s="8">
+      <c r="AZ8" s="8">
         <v>1.95</v>
       </c>
-      <c r="AX8" s="8">
+      <c r="BA8" s="8">
         <v>5.3</v>
       </c>
-      <c r="AY8" s="8">
+      <c r="BB8" s="8">
         <v>0.78</v>
       </c>
-      <c r="AZ8" s="8">
+      <c r="BC8" s="8">
         <v>4.66</v>
       </c>
-      <c r="BA8" s="8">
+      <c r="BD8" s="8">
         <v>0.69</v>
       </c>
-      <c r="BB8" s="8">
+      <c r="BE8" s="8">
         <v>6.65</v>
       </c>
-      <c r="BC8" s="8">
+      <c r="BF8" s="8">
         <v>1.49</v>
       </c>
-      <c r="BD8" s="8">
+      <c r="BG8" s="8">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="BE8" s="8">
+      <c r="BH8" s="8">
         <v>1.3</v>
       </c>
-      <c r="BF8" s="8">
+      <c r="BI8" s="8">
         <v>3.57</v>
       </c>
-      <c r="BG8" s="8">
+      <c r="BJ8" s="8">
         <v>0.76</v>
       </c>
     </row>
-    <row r="9" spans="1:59" s="9" customFormat="1" ht="21">
+    <row r="9" spans="1:62" s="9" customFormat="1" ht="20.5">
       <c r="A9" s="7" t="s">
         <v>80</v>
       </c>
@@ -2702,154 +2809,166 @@
         <v>3.19</v>
       </c>
       <c r="K9" s="8">
+        <f t="shared" si="0"/>
+        <v>19119.0384462</v>
+      </c>
+      <c r="L9" s="8">
         <v>12.37</v>
       </c>
-      <c r="L9" s="8">
+      <c r="M9" s="8">
         <v>14.79</v>
       </c>
-      <c r="M9" s="8">
+      <c r="N9" s="8">
         <v>11</v>
       </c>
-      <c r="N9" s="8">
+      <c r="O9" s="8">
         <v>0.2</v>
       </c>
-      <c r="O9" s="8">
+      <c r="P9" s="8">
         <v>5.37</v>
       </c>
-      <c r="P9" s="8">
+      <c r="Q9" s="8">
         <v>8.5500000000000007</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="R9" s="8">
         <v>2.85</v>
       </c>
-      <c r="R9" s="8">
+      <c r="S9" s="8">
         <v>0.81</v>
       </c>
-      <c r="S9" s="8">
+      <c r="T9" s="8">
         <v>0.32</v>
       </c>
-      <c r="T9" s="8">
+      <c r="U9" s="8">
+        <f t="shared" si="1"/>
+        <v>6724.1969937000003</v>
+      </c>
+      <c r="V9" s="8">
+        <f t="shared" si="2"/>
+        <v>1396.5461376000003</v>
+      </c>
+      <c r="W9" s="8">
         <v>1.78</v>
       </c>
-      <c r="U9" s="8">
+      <c r="X9" s="8">
         <v>99.95</v>
       </c>
-      <c r="V9" s="8">
+      <c r="Y9" s="8">
         <v>41.8</v>
       </c>
-      <c r="W9" s="8">
+      <c r="Z9" s="8">
         <v>18.8</v>
       </c>
-      <c r="X9" s="8">
+      <c r="AA9" s="8">
         <v>1.37</v>
       </c>
-      <c r="Y9" s="8">
+      <c r="AB9" s="8">
         <v>31.9</v>
       </c>
-      <c r="Z9" s="8">
+      <c r="AC9" s="8">
         <v>340</v>
       </c>
-      <c r="AA9" s="8">
+      <c r="AD9" s="8">
         <v>52.4</v>
       </c>
-      <c r="AB9" s="8">
+      <c r="AE9" s="8">
         <v>48.6</v>
       </c>
-      <c r="AC9" s="8">
+      <c r="AF9" s="8">
         <v>49.4</v>
       </c>
-      <c r="AD9" s="8">
+      <c r="AG9" s="8">
         <v>150</v>
       </c>
-      <c r="AE9" s="8">
+      <c r="AH9" s="8">
         <v>232</v>
       </c>
-      <c r="AF9" s="8">
+      <c r="AI9" s="8">
         <v>18.5</v>
       </c>
-      <c r="AG9" s="8">
+      <c r="AJ9" s="8">
         <v>15.8</v>
       </c>
-      <c r="AH9" s="8">
+      <c r="AK9" s="8">
         <v>285</v>
       </c>
-      <c r="AI9" s="8">
+      <c r="AL9" s="8">
         <v>34.200000000000003</v>
       </c>
-      <c r="AJ9" s="8">
+      <c r="AM9" s="8">
         <v>215</v>
       </c>
-      <c r="AK9" s="8">
+      <c r="AN9" s="8">
         <v>28.4</v>
       </c>
-      <c r="AL9" s="8">
+      <c r="AO9" s="8">
         <v>0.62</v>
       </c>
-      <c r="AM9" s="8">
+      <c r="AP9" s="8">
         <v>186</v>
       </c>
-      <c r="AN9" s="8">
+      <c r="AQ9" s="8">
         <v>24.3</v>
       </c>
-      <c r="AO9" s="8">
+      <c r="AR9" s="8">
         <v>55.1</v>
       </c>
-      <c r="AP9" s="8">
+      <c r="AS9" s="8">
         <v>7.15</v>
       </c>
-      <c r="AQ9" s="8">
+      <c r="AT9" s="8">
         <v>30.9</v>
       </c>
-      <c r="AR9" s="8">
+      <c r="AU9" s="8">
         <v>7.12</v>
       </c>
-      <c r="AS9" s="8">
+      <c r="AV9" s="8">
         <v>2.08</v>
       </c>
-      <c r="AT9" s="8">
+      <c r="AW9" s="8">
         <v>6.97</v>
       </c>
-      <c r="AU9" s="8">
+      <c r="AX9" s="8">
         <v>1.1100000000000001</v>
       </c>
-      <c r="AV9" s="8">
+      <c r="AY9" s="8">
         <v>6.64</v>
       </c>
-      <c r="AW9" s="8">
+      <c r="AZ9" s="8">
         <v>1.27</v>
       </c>
-      <c r="AX9" s="8">
+      <c r="BA9" s="8">
         <v>3.33</v>
       </c>
-      <c r="AY9" s="8">
+      <c r="BB9" s="8">
         <v>0.47</v>
       </c>
-      <c r="AZ9" s="8">
+      <c r="BC9" s="8">
         <v>2.85</v>
       </c>
-      <c r="BA9" s="8">
+      <c r="BD9" s="8">
         <v>0.41</v>
       </c>
-      <c r="BB9" s="8">
+      <c r="BE9" s="8">
         <v>5.44</v>
       </c>
-      <c r="BC9" s="8">
+      <c r="BF9" s="8">
         <v>1.65</v>
       </c>
-      <c r="BD9" s="8">
+      <c r="BG9" s="8">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="BE9" s="8">
+      <c r="BH9" s="8">
         <v>4.54</v>
       </c>
-      <c r="BF9" s="8">
+      <c r="BI9" s="8">
         <v>3.91</v>
       </c>
-      <c r="BG9" s="8">
+      <c r="BJ9" s="8">
         <v>0.91</v>
       </c>
     </row>
-    <row r="10" spans="1:59" s="9" customFormat="1" ht="21">
+    <row r="10" spans="1:62" s="9" customFormat="1" ht="20.5">
       <c r="A10" s="7" t="s">
         <v>80</v>
       </c>
@@ -2881,154 +3000,166 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="K10" s="8">
+        <f t="shared" si="0"/>
+        <v>24333.321658799996</v>
+      </c>
+      <c r="L10" s="8">
         <v>13.14</v>
       </c>
-      <c r="L10" s="8">
+      <c r="M10" s="8">
         <v>16.899999999999999</v>
       </c>
-      <c r="M10" s="8">
+      <c r="N10" s="8">
         <v>5.01</v>
       </c>
-      <c r="N10" s="8">
+      <c r="O10" s="8">
         <v>0.21</v>
       </c>
-      <c r="O10" s="8">
+      <c r="P10" s="8">
         <v>4.97</v>
       </c>
-      <c r="P10" s="8">
+      <c r="Q10" s="8">
         <v>9.52</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="R10" s="8">
         <v>2.46</v>
       </c>
-      <c r="R10" s="8">
+      <c r="S10" s="8">
         <v>1.37</v>
       </c>
-      <c r="S10" s="8">
+      <c r="T10" s="8">
         <v>0.28999999999999998</v>
       </c>
-      <c r="T10" s="8">
+      <c r="U10" s="8">
+        <f t="shared" si="1"/>
+        <v>11373.024544900001</v>
+      </c>
+      <c r="V10" s="8">
+        <f t="shared" si="2"/>
+        <v>1265.6199371999999</v>
+      </c>
+      <c r="W10" s="8">
         <v>1.44</v>
       </c>
-      <c r="U10" s="8">
+      <c r="X10" s="8">
         <v>99.98</v>
       </c>
-      <c r="V10" s="8">
+      <c r="Y10" s="8">
         <v>36.799999999999997</v>
       </c>
-      <c r="W10" s="8">
+      <c r="Z10" s="8">
         <v>15.5</v>
       </c>
-      <c r="X10" s="8">
+      <c r="AA10" s="8">
         <v>0.95</v>
       </c>
-      <c r="Y10" s="8">
+      <c r="AB10" s="8">
         <v>43.9</v>
       </c>
-      <c r="Z10" s="8">
+      <c r="AC10" s="8">
         <v>692</v>
       </c>
-      <c r="AA10" s="8">
+      <c r="AD10" s="8">
         <v>18.100000000000001</v>
       </c>
-      <c r="AB10" s="8">
+      <c r="AE10" s="8">
         <v>52.7</v>
       </c>
-      <c r="AC10" s="8">
+      <c r="AF10" s="8">
         <v>48.6</v>
       </c>
-      <c r="AD10" s="8">
+      <c r="AG10" s="8">
         <v>223</v>
       </c>
-      <c r="AE10" s="8">
+      <c r="AH10" s="8">
         <v>141</v>
       </c>
-      <c r="AF10" s="8">
+      <c r="AI10" s="8">
         <v>23</v>
       </c>
-      <c r="AG10" s="8">
+      <c r="AJ10" s="8">
         <v>47.6</v>
       </c>
-      <c r="AH10" s="8">
+      <c r="AK10" s="8">
         <v>359</v>
       </c>
-      <c r="AI10" s="8">
+      <c r="AL10" s="8">
         <v>30.3</v>
       </c>
-      <c r="AJ10" s="8">
+      <c r="AM10" s="8">
         <v>150</v>
       </c>
-      <c r="AK10" s="8">
+      <c r="AN10" s="8">
         <v>23.3</v>
       </c>
-      <c r="AL10" s="8">
+      <c r="AO10" s="8">
         <v>1.94</v>
       </c>
-      <c r="AM10" s="8">
+      <c r="AP10" s="8">
         <v>326</v>
       </c>
-      <c r="AN10" s="8">
+      <c r="AQ10" s="8">
         <v>20.2</v>
       </c>
-      <c r="AO10" s="8">
+      <c r="AR10" s="8">
         <v>44.3</v>
       </c>
-      <c r="AP10" s="8">
+      <c r="AS10" s="8">
         <v>5.69</v>
       </c>
-      <c r="AQ10" s="8">
+      <c r="AT10" s="8">
         <v>24.6</v>
       </c>
-      <c r="AR10" s="8">
+      <c r="AU10" s="8">
         <v>5.85</v>
       </c>
-      <c r="AS10" s="8">
+      <c r="AV10" s="8">
         <v>2.13</v>
       </c>
-      <c r="AT10" s="8">
+      <c r="AW10" s="8">
         <v>5.9</v>
       </c>
-      <c r="AU10" s="8">
+      <c r="AX10" s="8">
         <v>0.97</v>
       </c>
-      <c r="AV10" s="8">
+      <c r="AY10" s="8">
         <v>5.73</v>
       </c>
-      <c r="AW10" s="8">
+      <c r="AZ10" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AX10" s="8">
+      <c r="BA10" s="8">
         <v>3.01</v>
       </c>
-      <c r="AY10" s="8">
+      <c r="BB10" s="8">
         <v>0.43</v>
       </c>
-      <c r="AZ10" s="8">
+      <c r="BC10" s="8">
         <v>2.66</v>
       </c>
-      <c r="BA10" s="8">
+      <c r="BD10" s="8">
         <v>0.39</v>
       </c>
-      <c r="BB10" s="8">
+      <c r="BE10" s="8">
         <v>3.77</v>
       </c>
-      <c r="BC10" s="8">
+      <c r="BF10" s="8">
         <v>1.31</v>
       </c>
-      <c r="BD10" s="8">
+      <c r="BG10" s="8">
         <v>0.17</v>
       </c>
-      <c r="BE10" s="8">
+      <c r="BH10" s="8">
         <v>4.91</v>
       </c>
-      <c r="BF10" s="8">
+      <c r="BI10" s="8">
         <v>2.06</v>
       </c>
-      <c r="BG10" s="8">
+      <c r="BJ10" s="8">
         <v>0.44</v>
       </c>
     </row>
-    <row r="11" spans="1:59" s="9" customFormat="1" ht="21">
+    <row r="11" spans="1:62" s="9" customFormat="1" ht="20.5">
       <c r="A11" s="7" t="s">
         <v>80</v>
       </c>
@@ -3060,154 +3191,166 @@
         <v>1.6</v>
       </c>
       <c r="K11" s="8">
+        <f t="shared" si="0"/>
+        <v>9589.4863679999999</v>
+      </c>
+      <c r="L11" s="8">
         <v>14.38</v>
       </c>
-      <c r="L11" s="8">
+      <c r="M11" s="8">
         <v>11.38</v>
       </c>
-      <c r="M11" s="8">
+      <c r="N11" s="8">
         <v>4.84</v>
       </c>
-      <c r="N11" s="8">
+      <c r="O11" s="8">
         <v>0.16</v>
       </c>
-      <c r="O11" s="8">
+      <c r="P11" s="8">
         <v>6.71</v>
       </c>
-      <c r="P11" s="8">
+      <c r="Q11" s="8">
         <v>10.56</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="R11" s="8">
         <v>2.2200000000000002</v>
       </c>
-      <c r="R11" s="8">
+      <c r="S11" s="8">
         <v>0.71</v>
       </c>
-      <c r="S11" s="8">
+      <c r="T11" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="T11" s="8">
+      <c r="U11" s="8">
+        <f t="shared" si="1"/>
+        <v>5894.0492166999993</v>
+      </c>
+      <c r="V11" s="8">
+        <f t="shared" si="2"/>
+        <v>610.98893520000013</v>
+      </c>
+      <c r="W11" s="8">
         <v>4.57</v>
       </c>
-      <c r="U11" s="8">
+      <c r="X11" s="8">
         <v>99.95</v>
       </c>
-      <c r="V11" s="8">
+      <c r="Y11" s="8">
         <v>53.9</v>
       </c>
-      <c r="W11" s="8">
+      <c r="Z11" s="8">
         <v>27.2</v>
       </c>
-      <c r="X11" s="8">
+      <c r="AA11" s="8">
         <v>0.43</v>
       </c>
-      <c r="Y11" s="8">
+      <c r="AB11" s="8">
         <v>39.9</v>
       </c>
-      <c r="Z11" s="8">
+      <c r="AC11" s="8">
         <v>289</v>
       </c>
-      <c r="AA11" s="8">
+      <c r="AD11" s="8">
         <v>239</v>
       </c>
-      <c r="AB11" s="8">
+      <c r="AE11" s="8">
         <v>49.1</v>
       </c>
-      <c r="AC11" s="8">
+      <c r="AF11" s="8">
         <v>101</v>
       </c>
-      <c r="AD11" s="8">
+      <c r="AG11" s="8">
         <v>78</v>
       </c>
-      <c r="AE11" s="8">
+      <c r="AH11" s="8">
         <v>72.2</v>
       </c>
-      <c r="AF11" s="8">
+      <c r="AI11" s="8">
         <v>16.8</v>
       </c>
-      <c r="AG11" s="8">
+      <c r="AJ11" s="8">
         <v>38.799999999999997</v>
       </c>
-      <c r="AH11" s="8">
+      <c r="AK11" s="8">
         <v>485</v>
       </c>
-      <c r="AI11" s="8">
+      <c r="AL11" s="8">
         <v>20.9</v>
       </c>
-      <c r="AJ11" s="8">
+      <c r="AM11" s="8">
         <v>70.599999999999994</v>
       </c>
-      <c r="AK11" s="8">
+      <c r="AN11" s="8">
         <v>5.9</v>
       </c>
-      <c r="AL11" s="8">
+      <c r="AO11" s="8">
         <v>1.22</v>
       </c>
-      <c r="AM11" s="8">
+      <c r="AP11" s="8">
         <v>351</v>
       </c>
-      <c r="AN11" s="8">
+      <c r="AQ11" s="8">
         <v>7.04</v>
       </c>
-      <c r="AO11" s="8">
+      <c r="AR11" s="8">
         <v>16.5</v>
       </c>
-      <c r="AP11" s="8">
+      <c r="AS11" s="8">
         <v>2.4500000000000002</v>
       </c>
-      <c r="AQ11" s="8">
+      <c r="AT11" s="8">
         <v>11.3</v>
       </c>
-      <c r="AR11" s="8">
+      <c r="AU11" s="8">
         <v>3.1</v>
       </c>
-      <c r="AS11" s="8">
+      <c r="AV11" s="8">
         <v>1.33</v>
       </c>
-      <c r="AT11" s="8">
+      <c r="AW11" s="8">
         <v>3.6</v>
       </c>
-      <c r="AU11" s="8">
+      <c r="AX11" s="8">
         <v>0.59</v>
       </c>
-      <c r="AV11" s="8">
+      <c r="AY11" s="8">
         <v>3.66</v>
       </c>
-      <c r="AW11" s="8">
+      <c r="AZ11" s="8">
         <v>0.76</v>
       </c>
-      <c r="AX11" s="8">
+      <c r="BA11" s="8">
         <v>2.0499999999999998</v>
       </c>
-      <c r="AY11" s="8">
+      <c r="BB11" s="8">
         <v>0.31</v>
       </c>
-      <c r="AZ11" s="8">
+      <c r="BC11" s="8">
         <v>1.86</v>
       </c>
-      <c r="BA11" s="8">
+      <c r="BD11" s="8">
         <v>0.27</v>
       </c>
-      <c r="BB11" s="8">
+      <c r="BE11" s="8">
         <v>1.91</v>
       </c>
-      <c r="BC11" s="8">
+      <c r="BF11" s="8">
         <v>0.37</v>
       </c>
-      <c r="BD11" s="8">
+      <c r="BG11" s="8">
         <v>0.12</v>
       </c>
-      <c r="BE11" s="8">
+      <c r="BH11" s="8">
         <v>1.1499999999999999</v>
       </c>
-      <c r="BF11" s="8">
+      <c r="BI11" s="8">
         <v>0.64</v>
       </c>
-      <c r="BG11" s="8">
+      <c r="BJ11" s="8">
         <v>0.15</v>
       </c>
     </row>
-    <row r="12" spans="1:59" s="9" customFormat="1" ht="21">
+    <row r="12" spans="1:62" s="9" customFormat="1" ht="20.5">
       <c r="A12" s="7" t="s">
         <v>80</v>
       </c>
@@ -3239,154 +3382,166 @@
         <v>1.97</v>
       </c>
       <c r="K12" s="8">
+        <f t="shared" si="0"/>
+        <v>11807.055090599999</v>
+      </c>
+      <c r="L12" s="8">
         <v>13.57</v>
       </c>
-      <c r="L12" s="8">
+      <c r="M12" s="8">
         <v>13.08</v>
       </c>
-      <c r="M12" s="8">
+      <c r="N12" s="8">
         <v>3.98</v>
       </c>
-      <c r="N12" s="8">
+      <c r="O12" s="8">
         <v>0.18</v>
       </c>
-      <c r="O12" s="8">
+      <c r="P12" s="8">
         <v>5.15</v>
       </c>
-      <c r="P12" s="8">
+      <c r="Q12" s="8">
         <v>10.210000000000001</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="R12" s="8">
         <v>2.63</v>
       </c>
-      <c r="R12" s="8">
+      <c r="S12" s="8">
         <v>0.48</v>
       </c>
-      <c r="S12" s="8">
+      <c r="T12" s="8">
         <v>0.19</v>
       </c>
-      <c r="T12" s="8">
+      <c r="U12" s="8">
+        <f t="shared" si="1"/>
+        <v>3984.7093295999998</v>
+      </c>
+      <c r="V12" s="8">
+        <f t="shared" si="2"/>
+        <v>829.1992692</v>
+      </c>
+      <c r="W12" s="8">
         <v>5.63</v>
       </c>
-      <c r="U12" s="8">
+      <c r="X12" s="8">
         <v>99.96</v>
       </c>
-      <c r="V12" s="8">
+      <c r="Y12" s="8">
         <v>43.8</v>
       </c>
-      <c r="W12" s="8">
+      <c r="Z12" s="8">
         <v>17.7</v>
       </c>
-      <c r="X12" s="8">
+      <c r="AA12" s="8">
         <v>0.52</v>
       </c>
-      <c r="Y12" s="8">
+      <c r="AB12" s="8">
         <v>36.700000000000003</v>
       </c>
-      <c r="Z12" s="8">
+      <c r="AC12" s="8">
         <v>312</v>
       </c>
-      <c r="AA12" s="8">
+      <c r="AD12" s="8">
         <v>83.2</v>
       </c>
-      <c r="AB12" s="8">
+      <c r="AE12" s="8">
         <v>57.9</v>
       </c>
-      <c r="AC12" s="8">
+      <c r="AF12" s="8">
         <v>65.7</v>
       </c>
-      <c r="AD12" s="8">
+      <c r="AG12" s="8">
         <v>90.4</v>
       </c>
-      <c r="AE12" s="8">
+      <c r="AH12" s="8">
         <v>77.5</v>
       </c>
-      <c r="AF12" s="8">
+      <c r="AI12" s="8">
         <v>19</v>
       </c>
-      <c r="AG12" s="8">
+      <c r="AJ12" s="8">
         <v>22.8</v>
       </c>
-      <c r="AH12" s="8">
+      <c r="AK12" s="8">
         <v>379</v>
       </c>
-      <c r="AI12" s="8">
+      <c r="AL12" s="8">
         <v>24.8</v>
       </c>
-      <c r="AJ12" s="8">
+      <c r="AM12" s="8">
         <v>89.8</v>
       </c>
-      <c r="AK12" s="8">
+      <c r="AN12" s="8">
         <v>7.38</v>
       </c>
-      <c r="AL12" s="8">
+      <c r="AO12" s="8">
         <v>1.06</v>
       </c>
-      <c r="AM12" s="8">
+      <c r="AP12" s="8">
         <v>128</v>
       </c>
-      <c r="AN12" s="8">
+      <c r="AQ12" s="8">
         <v>9.42</v>
       </c>
-      <c r="AO12" s="8">
+      <c r="AR12" s="8">
         <v>23.4</v>
       </c>
-      <c r="AP12" s="8">
+      <c r="AS12" s="8">
         <v>3.24</v>
       </c>
-      <c r="AQ12" s="8">
+      <c r="AT12" s="8">
         <v>14.7</v>
       </c>
-      <c r="AR12" s="8">
+      <c r="AU12" s="8">
         <v>3.96</v>
       </c>
-      <c r="AS12" s="8">
+      <c r="AV12" s="8">
         <v>1.64</v>
       </c>
-      <c r="AT12" s="8">
+      <c r="AW12" s="8">
         <v>4.3899999999999997</v>
       </c>
-      <c r="AU12" s="8">
+      <c r="AX12" s="8">
         <v>0.74</v>
       </c>
-      <c r="AV12" s="8">
+      <c r="AY12" s="8">
         <v>4.53</v>
       </c>
-      <c r="AW12" s="8">
+      <c r="AZ12" s="8">
         <v>0.93</v>
       </c>
-      <c r="AX12" s="8">
+      <c r="BA12" s="8">
         <v>2.65</v>
       </c>
-      <c r="AY12" s="8">
+      <c r="BB12" s="8">
         <v>0.35</v>
       </c>
-      <c r="AZ12" s="8">
+      <c r="BC12" s="8">
         <v>2.23</v>
       </c>
-      <c r="BA12" s="8">
+      <c r="BD12" s="8">
         <v>0.32</v>
       </c>
-      <c r="BB12" s="8">
+      <c r="BE12" s="8">
         <v>2.39</v>
       </c>
-      <c r="BC12" s="8">
+      <c r="BF12" s="8">
         <v>0.45</v>
       </c>
-      <c r="BD12" s="8">
+      <c r="BG12" s="8">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="BE12" s="8">
+      <c r="BH12" s="8">
         <v>5.38</v>
       </c>
-      <c r="BF12" s="8">
+      <c r="BI12" s="8">
         <v>0.85</v>
       </c>
-      <c r="BG12" s="8">
+      <c r="BJ12" s="8">
         <v>0.21</v>
       </c>
     </row>
-    <row r="13" spans="1:59" s="9" customFormat="1" ht="21">
+    <row r="13" spans="1:62" s="9" customFormat="1" ht="20.5">
       <c r="A13" s="7" t="s">
         <v>80</v>
       </c>
@@ -3418,154 +3573,166 @@
         <v>3.28</v>
       </c>
       <c r="K13" s="8">
+        <f t="shared" si="0"/>
+        <v>19658.447054399996</v>
+      </c>
+      <c r="L13" s="8">
         <v>12.55</v>
       </c>
-      <c r="L13" s="8">
+      <c r="M13" s="8">
         <v>16.55</v>
       </c>
-      <c r="M13" s="8">
+      <c r="N13" s="8">
         <v>4.37</v>
       </c>
-      <c r="N13" s="8">
+      <c r="O13" s="8">
         <v>0.22</v>
       </c>
-      <c r="O13" s="8">
+      <c r="P13" s="8">
         <v>4.32</v>
       </c>
-      <c r="P13" s="8">
+      <c r="Q13" s="8">
         <v>8.84</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="R13" s="8">
         <v>2.4300000000000002</v>
       </c>
-      <c r="R13" s="8">
+      <c r="S13" s="8">
         <v>1.04</v>
       </c>
-      <c r="S13" s="8">
+      <c r="T13" s="8">
         <v>0.45</v>
       </c>
-      <c r="T13" s="8">
+      <c r="U13" s="8">
+        <f t="shared" si="1"/>
+        <v>8633.5368808000003</v>
+      </c>
+      <c r="V13" s="8">
+        <f t="shared" si="2"/>
+        <v>1963.893006</v>
+      </c>
+      <c r="W13" s="8">
         <v>2.06</v>
       </c>
-      <c r="U13" s="8">
+      <c r="X13" s="8">
         <v>99.98</v>
       </c>
-      <c r="V13" s="8">
+      <c r="Y13" s="8">
         <v>34.1</v>
       </c>
-      <c r="W13" s="8">
+      <c r="Z13" s="8">
         <v>10.199999999999999</v>
       </c>
-      <c r="X13" s="8">
+      <c r="AA13" s="8">
         <v>1.21</v>
       </c>
-      <c r="Y13" s="8">
+      <c r="AB13" s="8">
         <v>37.9</v>
       </c>
-      <c r="Z13" s="8">
+      <c r="AC13" s="8">
         <v>344</v>
       </c>
-      <c r="AA13" s="8">
+      <c r="AD13" s="8">
         <v>6.84</v>
       </c>
-      <c r="AB13" s="8">
+      <c r="AE13" s="8">
         <v>43.9</v>
       </c>
-      <c r="AC13" s="8">
+      <c r="AF13" s="8">
         <v>29.9</v>
       </c>
-      <c r="AD13" s="8">
+      <c r="AG13" s="8">
         <v>118</v>
       </c>
-      <c r="AE13" s="8">
+      <c r="AH13" s="8">
         <v>121</v>
       </c>
-      <c r="AF13" s="8">
+      <c r="AI13" s="8">
         <v>23.1</v>
       </c>
-      <c r="AG13" s="8">
+      <c r="AJ13" s="8">
         <v>28.1</v>
       </c>
-      <c r="AH13" s="8">
+      <c r="AK13" s="8">
         <v>285</v>
       </c>
-      <c r="AI13" s="8">
+      <c r="AL13" s="8">
         <v>43.9</v>
       </c>
-      <c r="AJ13" s="8">
+      <c r="AM13" s="8">
         <v>209</v>
       </c>
-      <c r="AK13" s="8">
+      <c r="AN13" s="8">
         <v>23</v>
       </c>
-      <c r="AL13" s="8">
+      <c r="AO13" s="8">
         <v>4.66</v>
       </c>
-      <c r="AM13" s="8">
+      <c r="AP13" s="8">
         <v>328</v>
       </c>
-      <c r="AN13" s="8">
+      <c r="AQ13" s="8">
         <v>25.4</v>
       </c>
-      <c r="AO13" s="8">
+      <c r="AR13" s="8">
         <v>56.2</v>
       </c>
-      <c r="AP13" s="8">
+      <c r="AS13" s="8">
         <v>7.41</v>
       </c>
-      <c r="AQ13" s="8">
+      <c r="AT13" s="8">
         <v>32.799999999999997</v>
       </c>
-      <c r="AR13" s="8">
+      <c r="AU13" s="8">
         <v>7.93</v>
       </c>
-      <c r="AS13" s="8">
+      <c r="AV13" s="8">
         <v>2.83</v>
       </c>
-      <c r="AT13" s="8">
+      <c r="AW13" s="8">
         <v>8.2899999999999991</v>
       </c>
-      <c r="AU13" s="8">
+      <c r="AX13" s="8">
         <v>1.36</v>
       </c>
-      <c r="AV13" s="8">
+      <c r="AY13" s="8">
         <v>8.11</v>
       </c>
-      <c r="AW13" s="8">
+      <c r="AZ13" s="8">
         <v>1.64</v>
       </c>
-      <c r="AX13" s="8">
+      <c r="BA13" s="8">
         <v>4.45</v>
       </c>
-      <c r="AY13" s="8">
+      <c r="BB13" s="8">
         <v>0.64</v>
       </c>
-      <c r="AZ13" s="8">
+      <c r="BC13" s="8">
         <v>3.95</v>
       </c>
-      <c r="BA13" s="8">
+      <c r="BD13" s="8">
         <v>0.59</v>
       </c>
-      <c r="BB13" s="8">
+      <c r="BE13" s="8">
         <v>5.22</v>
       </c>
-      <c r="BC13" s="8">
+      <c r="BF13" s="8">
         <v>1.23</v>
       </c>
-      <c r="BD13" s="8">
+      <c r="BG13" s="8">
         <v>0.18</v>
       </c>
-      <c r="BE13" s="8">
+      <c r="BH13" s="8">
         <v>4.83</v>
       </c>
-      <c r="BF13" s="8">
+      <c r="BI13" s="8">
         <v>2.61</v>
       </c>
-      <c r="BG13" s="8">
+      <c r="BJ13" s="8">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:59" s="9" customFormat="1" ht="21">
+    <row r="14" spans="1:62" s="9" customFormat="1" ht="20.5">
       <c r="A14" s="7" t="s">
         <v>80</v>
       </c>
@@ -3597,154 +3764,166 @@
         <v>2.76</v>
       </c>
       <c r="K14" s="8">
+        <f t="shared" si="0"/>
+        <v>16541.863984799998</v>
+      </c>
+      <c r="L14" s="8">
         <v>14.24</v>
       </c>
-      <c r="L14" s="8">
+      <c r="M14" s="8">
         <v>13.78</v>
       </c>
-      <c r="M14" s="8">
+      <c r="N14" s="8">
         <v>5.04</v>
       </c>
-      <c r="N14" s="8">
+      <c r="O14" s="8">
         <v>0.17</v>
       </c>
-      <c r="O14" s="8">
+      <c r="P14" s="8">
         <v>4.6500000000000004</v>
       </c>
-      <c r="P14" s="8">
+      <c r="Q14" s="8">
         <v>9.1199999999999992</v>
       </c>
-      <c r="Q14" s="8">
+      <c r="R14" s="8">
         <v>1.93</v>
       </c>
-      <c r="R14" s="8">
+      <c r="S14" s="8">
         <v>0.69</v>
       </c>
-      <c r="S14" s="8">
+      <c r="T14" s="8">
         <v>0.28000000000000003</v>
       </c>
-      <c r="T14" s="8">
+      <c r="U14" s="8">
+        <f t="shared" si="1"/>
+        <v>5728.0196612999989</v>
+      </c>
+      <c r="V14" s="8">
+        <f t="shared" si="2"/>
+        <v>1221.9778704000003</v>
+      </c>
+      <c r="W14" s="8">
         <v>4.93</v>
       </c>
-      <c r="U14" s="8">
+      <c r="X14" s="8">
         <v>99.9</v>
       </c>
-      <c r="V14" s="8">
+      <c r="Y14" s="8">
         <v>40.1</v>
       </c>
-      <c r="W14" s="8">
+      <c r="Z14" s="8">
         <v>13.6</v>
       </c>
-      <c r="X14" s="8">
+      <c r="AA14" s="8">
         <v>0.92</v>
       </c>
-      <c r="Y14" s="8">
+      <c r="AB14" s="8">
         <v>36.799999999999997</v>
       </c>
-      <c r="Z14" s="8">
+      <c r="AC14" s="8">
         <v>354</v>
       </c>
-      <c r="AA14" s="8">
+      <c r="AD14" s="8">
         <v>262</v>
       </c>
-      <c r="AB14" s="8">
+      <c r="AE14" s="8">
         <v>39</v>
       </c>
-      <c r="AC14" s="8">
+      <c r="AF14" s="8">
         <v>74.2</v>
       </c>
-      <c r="AD14" s="8">
+      <c r="AG14" s="8">
         <v>35.9</v>
       </c>
-      <c r="AE14" s="8">
+      <c r="AH14" s="8">
         <v>104</v>
       </c>
-      <c r="AF14" s="8">
+      <c r="AI14" s="8">
         <v>21.2</v>
       </c>
-      <c r="AG14" s="8">
+      <c r="AJ14" s="8">
         <v>20.8</v>
       </c>
-      <c r="AH14" s="8">
+      <c r="AK14" s="8">
         <v>262</v>
       </c>
-      <c r="AI14" s="8">
+      <c r="AL14" s="8">
         <v>33.9</v>
       </c>
-      <c r="AJ14" s="8">
+      <c r="AM14" s="8">
         <v>148</v>
       </c>
-      <c r="AK14" s="8">
+      <c r="AN14" s="8">
         <v>14.4</v>
       </c>
-      <c r="AL14" s="8">
+      <c r="AO14" s="8">
         <v>0.56999999999999995</v>
       </c>
-      <c r="AM14" s="8">
+      <c r="AP14" s="8">
         <v>172</v>
       </c>
-      <c r="AN14" s="8">
+      <c r="AQ14" s="8">
         <v>14.9</v>
       </c>
-      <c r="AO14" s="8">
+      <c r="AR14" s="8">
         <v>32.6</v>
       </c>
-      <c r="AP14" s="8">
+      <c r="AS14" s="8">
         <v>4.8499999999999996</v>
       </c>
-      <c r="AQ14" s="8">
+      <c r="AT14" s="8">
         <v>22</v>
       </c>
-      <c r="AR14" s="8">
+      <c r="AU14" s="8">
         <v>5.7</v>
       </c>
-      <c r="AS14" s="8">
+      <c r="AV14" s="8">
         <v>1.99</v>
       </c>
-      <c r="AT14" s="8">
+      <c r="AW14" s="8">
         <v>6.27</v>
       </c>
-      <c r="AU14" s="8">
+      <c r="AX14" s="8">
         <v>1.02</v>
       </c>
-      <c r="AV14" s="8">
+      <c r="AY14" s="8">
         <v>6.22</v>
       </c>
-      <c r="AW14" s="8">
+      <c r="AZ14" s="8">
         <v>1.24</v>
       </c>
-      <c r="AX14" s="8">
+      <c r="BA14" s="8">
         <v>3.39</v>
       </c>
-      <c r="AY14" s="8">
+      <c r="BB14" s="8">
         <v>0.47</v>
       </c>
-      <c r="AZ14" s="8">
+      <c r="BC14" s="8">
         <v>2.84</v>
       </c>
-      <c r="BA14" s="8">
+      <c r="BD14" s="8">
         <v>0.43</v>
       </c>
-      <c r="BB14" s="8">
+      <c r="BE14" s="8">
         <v>3.81</v>
       </c>
-      <c r="BC14" s="8">
+      <c r="BF14" s="8">
         <v>0.88</v>
       </c>
-      <c r="BD14" s="8">
+      <c r="BG14" s="8">
         <v>0.17</v>
       </c>
-      <c r="BE14" s="8">
+      <c r="BH14" s="8">
         <v>2.94</v>
       </c>
-      <c r="BF14" s="8">
+      <c r="BI14" s="8">
         <v>2.25</v>
       </c>
-      <c r="BG14" s="8">
+      <c r="BJ14" s="8">
         <v>0.45</v>
       </c>
     </row>
-    <row r="15" spans="1:59" s="9" customFormat="1" ht="21">
+    <row r="15" spans="1:62" s="9" customFormat="1" ht="20.5">
       <c r="A15" s="7" t="s">
         <v>80</v>
       </c>
@@ -3776,154 +3955,166 @@
         <v>2.87</v>
       </c>
       <c r="K15" s="8">
+        <f t="shared" si="0"/>
+        <v>17201.141172599997</v>
+      </c>
+      <c r="L15" s="8">
         <v>14.68</v>
       </c>
-      <c r="L15" s="8">
+      <c r="M15" s="8">
         <v>16.079999999999998</v>
       </c>
-      <c r="M15" s="8">
+      <c r="N15" s="8">
         <v>9.44</v>
       </c>
-      <c r="N15" s="8">
+      <c r="O15" s="8">
         <v>0.2</v>
       </c>
-      <c r="O15" s="8">
+      <c r="P15" s="8">
         <v>5.88</v>
       </c>
-      <c r="P15" s="8">
+      <c r="Q15" s="8">
         <v>7.23</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="R15" s="8">
         <v>1.92</v>
       </c>
-      <c r="R15" s="8">
+      <c r="S15" s="8">
         <v>0.04</v>
       </c>
-      <c r="S15" s="8">
+      <c r="T15" s="8">
         <v>0.37</v>
       </c>
-      <c r="T15" s="8">
+      <c r="U15" s="8">
+        <f t="shared" si="1"/>
+        <v>332.05911079999998</v>
+      </c>
+      <c r="V15" s="8">
+        <f t="shared" si="2"/>
+        <v>1614.7564716000002</v>
+      </c>
+      <c r="W15" s="8">
         <v>2.4</v>
       </c>
-      <c r="U15" s="8">
+      <c r="X15" s="8">
         <v>99.94</v>
       </c>
-      <c r="V15" s="8">
+      <c r="Y15" s="8">
         <v>42</v>
       </c>
-      <c r="W15" s="8">
+      <c r="Z15" s="8">
         <v>15.4</v>
       </c>
-      <c r="X15" s="8">
+      <c r="AA15" s="8">
         <v>0.82</v>
       </c>
-      <c r="Y15" s="8">
+      <c r="AB15" s="8">
         <v>35.299999999999997</v>
       </c>
-      <c r="Z15" s="8">
+      <c r="AC15" s="8">
         <v>331</v>
       </c>
-      <c r="AA15" s="8">
+      <c r="AD15" s="8">
         <v>268</v>
       </c>
-      <c r="AB15" s="8">
+      <c r="AE15" s="8">
         <v>38.6</v>
       </c>
-      <c r="AC15" s="8">
+      <c r="AF15" s="8">
         <v>67</v>
       </c>
-      <c r="AD15" s="8">
+      <c r="AG15" s="8">
         <v>33.5</v>
       </c>
-      <c r="AE15" s="8">
+      <c r="AH15" s="8">
         <v>99.5</v>
       </c>
-      <c r="AF15" s="8">
+      <c r="AI15" s="8">
         <v>19.399999999999999</v>
       </c>
-      <c r="AG15" s="8">
+      <c r="AJ15" s="8">
         <v>21.6</v>
       </c>
-      <c r="AH15" s="8">
+      <c r="AK15" s="8">
         <v>239</v>
       </c>
-      <c r="AI15" s="8">
+      <c r="AL15" s="8">
         <v>28.9</v>
       </c>
-      <c r="AJ15" s="8">
+      <c r="AM15" s="8">
         <v>130</v>
       </c>
-      <c r="AK15" s="8">
+      <c r="AN15" s="8">
         <v>12.1</v>
       </c>
-      <c r="AL15" s="8">
+      <c r="AO15" s="8">
         <v>0.68</v>
       </c>
-      <c r="AM15" s="8">
+      <c r="AP15" s="8">
         <v>414</v>
       </c>
-      <c r="AN15" s="8">
+      <c r="AQ15" s="8">
         <v>12.3</v>
       </c>
-      <c r="AO15" s="8">
+      <c r="AR15" s="8">
         <v>29.5</v>
       </c>
-      <c r="AP15" s="8">
+      <c r="AS15" s="8">
         <v>4.1900000000000004</v>
       </c>
-      <c r="AQ15" s="8">
+      <c r="AT15" s="8">
         <v>19.3</v>
       </c>
-      <c r="AR15" s="8">
+      <c r="AU15" s="8">
         <v>5.0199999999999996</v>
       </c>
-      <c r="AS15" s="8">
+      <c r="AV15" s="8">
         <v>1.76</v>
       </c>
-      <c r="AT15" s="8">
+      <c r="AW15" s="8">
         <v>5.65</v>
       </c>
-      <c r="AU15" s="8">
+      <c r="AX15" s="8">
         <v>0.9</v>
       </c>
-      <c r="AV15" s="8">
+      <c r="AY15" s="8">
         <v>5.4</v>
       </c>
-      <c r="AW15" s="8">
+      <c r="AZ15" s="8">
         <v>1.07</v>
       </c>
-      <c r="AX15" s="8">
+      <c r="BA15" s="8">
         <v>3.03</v>
       </c>
-      <c r="AY15" s="8">
+      <c r="BB15" s="8">
         <v>0.42</v>
       </c>
-      <c r="AZ15" s="8">
+      <c r="BC15" s="8">
         <v>2.62</v>
       </c>
-      <c r="BA15" s="8">
+      <c r="BD15" s="8">
         <v>0.37</v>
       </c>
-      <c r="BB15" s="8">
+      <c r="BE15" s="8">
         <v>3.27</v>
       </c>
-      <c r="BC15" s="8">
+      <c r="BF15" s="8">
         <v>0.73</v>
       </c>
-      <c r="BD15" s="8">
+      <c r="BG15" s="8">
         <v>0.15</v>
       </c>
-      <c r="BE15" s="8">
+      <c r="BH15" s="8">
         <v>4.3</v>
       </c>
-      <c r="BF15" s="8">
+      <c r="BI15" s="8">
         <v>2.0099999999999998</v>
       </c>
-      <c r="BG15" s="8">
+      <c r="BJ15" s="8">
         <v>0.45</v>
       </c>
     </row>
-    <row r="16" spans="1:59" s="9" customFormat="1" ht="21">
+    <row r="16" spans="1:62" s="9" customFormat="1" ht="20.5">
       <c r="A16" s="7" t="s">
         <v>80</v>
       </c>
@@ -3955,154 +4146,166 @@
         <v>2.75</v>
       </c>
       <c r="K16" s="8">
+        <f t="shared" si="0"/>
+        <v>16481.929694999999</v>
+      </c>
+      <c r="L16" s="8">
         <v>13.12</v>
       </c>
-      <c r="L16" s="8">
+      <c r="M16" s="8">
         <v>14.21</v>
       </c>
-      <c r="M16" s="8">
+      <c r="N16" s="8">
         <v>9.2200000000000006</v>
       </c>
-      <c r="N16" s="8">
+      <c r="O16" s="8">
         <v>0.2</v>
       </c>
-      <c r="O16" s="8">
+      <c r="P16" s="8">
         <v>6.34</v>
       </c>
-      <c r="P16" s="8">
+      <c r="Q16" s="8">
         <v>8.8800000000000008</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="R16" s="8">
         <v>1.87</v>
       </c>
-      <c r="R16" s="8">
+      <c r="S16" s="8">
         <v>1.06</v>
       </c>
-      <c r="S16" s="8">
+      <c r="T16" s="8">
         <v>0.28000000000000003</v>
       </c>
-      <c r="T16" s="8">
+      <c r="U16" s="8">
+        <f t="shared" si="1"/>
+        <v>8799.5664362000007</v>
+      </c>
+      <c r="V16" s="8">
+        <f t="shared" si="2"/>
+        <v>1221.9778704000003</v>
+      </c>
+      <c r="W16" s="8">
         <v>4.38</v>
       </c>
-      <c r="U16" s="8">
+      <c r="X16" s="8">
         <v>99.93</v>
       </c>
-      <c r="V16" s="8">
+      <c r="Y16" s="8">
         <v>46.9</v>
       </c>
-      <c r="W16" s="8">
+      <c r="Z16" s="8">
         <v>56</v>
       </c>
-      <c r="X16" s="8">
+      <c r="AA16" s="8">
         <v>1.03</v>
       </c>
-      <c r="Y16" s="8">
+      <c r="AB16" s="8">
         <v>38.1</v>
       </c>
-      <c r="Z16" s="8">
+      <c r="AC16" s="8">
         <v>340</v>
       </c>
-      <c r="AA16" s="8">
+      <c r="AD16" s="8">
         <v>68.900000000000006</v>
       </c>
-      <c r="AB16" s="8">
+      <c r="AE16" s="8">
         <v>51</v>
       </c>
-      <c r="AC16" s="8">
+      <c r="AF16" s="8">
         <v>68.3</v>
       </c>
-      <c r="AD16" s="8">
+      <c r="AG16" s="8">
         <v>116</v>
       </c>
-      <c r="AE16" s="8">
+      <c r="AH16" s="8">
         <v>118</v>
       </c>
-      <c r="AF16" s="8">
+      <c r="AI16" s="8">
         <v>21.6</v>
       </c>
-      <c r="AG16" s="8">
+      <c r="AJ16" s="8">
         <v>0.36</v>
       </c>
-      <c r="AH16" s="8">
+      <c r="AK16" s="8">
         <v>634</v>
       </c>
-      <c r="AI16" s="8">
+      <c r="AL16" s="8">
         <v>34.200000000000003</v>
       </c>
-      <c r="AJ16" s="8">
+      <c r="AM16" s="8">
         <v>159</v>
       </c>
-      <c r="AK16" s="8">
+      <c r="AN16" s="8">
         <v>15.9</v>
       </c>
-      <c r="AL16" s="8">
+      <c r="AO16" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AM16" s="8">
+      <c r="AP16" s="8">
         <v>30.8</v>
       </c>
-      <c r="AN16" s="8">
+      <c r="AQ16" s="8">
         <v>19.7</v>
       </c>
-      <c r="AO16" s="8">
+      <c r="AR16" s="8">
         <v>43.3</v>
       </c>
-      <c r="AP16" s="8">
+      <c r="AS16" s="8">
         <v>5.75</v>
       </c>
-      <c r="AQ16" s="8">
+      <c r="AT16" s="8">
         <v>25.5</v>
       </c>
-      <c r="AR16" s="8">
+      <c r="AU16" s="8">
         <v>6.26</v>
       </c>
-      <c r="AS16" s="8">
+      <c r="AV16" s="8">
         <v>2.25</v>
       </c>
-      <c r="AT16" s="8">
+      <c r="AW16" s="8">
         <v>6.61</v>
       </c>
-      <c r="AU16" s="8">
+      <c r="AX16" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AV16" s="8">
+      <c r="AY16" s="8">
         <v>6.5</v>
       </c>
-      <c r="AW16" s="8">
+      <c r="AZ16" s="8">
         <v>1.29</v>
       </c>
-      <c r="AX16" s="8">
+      <c r="BA16" s="8">
         <v>3.57</v>
       </c>
-      <c r="AY16" s="8">
+      <c r="BB16" s="8">
         <v>0.51</v>
       </c>
-      <c r="AZ16" s="8">
+      <c r="BC16" s="8">
         <v>3.05</v>
       </c>
-      <c r="BA16" s="8">
+      <c r="BD16" s="8">
         <v>0.46</v>
       </c>
-      <c r="BB16" s="8">
+      <c r="BE16" s="8">
         <v>4.09</v>
       </c>
-      <c r="BC16" s="8">
+      <c r="BF16" s="8">
         <v>0.96</v>
       </c>
-      <c r="BD16" s="8">
+      <c r="BG16" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="BE16" s="8">
+      <c r="BH16" s="8">
         <v>4.13</v>
       </c>
-      <c r="BF16" s="8">
+      <c r="BI16" s="8">
         <v>2.02</v>
       </c>
-      <c r="BG16" s="8">
+      <c r="BJ16" s="8">
         <v>0.41</v>
       </c>
     </row>
-    <row r="17" spans="1:59" s="9" customFormat="1" ht="21">
+    <row r="17" spans="1:62" s="9" customFormat="1" ht="20.5">
       <c r="A17" s="7" t="s">
         <v>80</v>
       </c>
@@ -4134,154 +4337,166 @@
         <v>4.7</v>
       </c>
       <c r="K17" s="8">
+        <f t="shared" si="0"/>
+        <v>28169.116205999999</v>
+      </c>
+      <c r="L17" s="8">
         <v>14.45</v>
       </c>
-      <c r="L17" s="8">
+      <c r="M17" s="8">
         <v>20.350000000000001</v>
       </c>
-      <c r="M17" s="8">
+      <c r="N17" s="8">
         <v>4.4400000000000004</v>
       </c>
-      <c r="N17" s="8">
+      <c r="O17" s="8">
         <v>0.22</v>
       </c>
-      <c r="O17" s="8">
+      <c r="P17" s="8">
         <v>2.46</v>
       </c>
-      <c r="P17" s="8">
+      <c r="Q17" s="8">
         <v>2.21</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="R17" s="8">
         <v>1.3</v>
       </c>
-      <c r="R17" s="8">
+      <c r="S17" s="8">
         <v>1.89</v>
       </c>
-      <c r="S17" s="8">
+      <c r="T17" s="8">
         <v>0.6</v>
       </c>
-      <c r="T17" s="8">
+      <c r="U17" s="8">
+        <f t="shared" si="1"/>
+        <v>15689.792985299999</v>
+      </c>
+      <c r="V17" s="8">
+        <f t="shared" si="2"/>
+        <v>2618.5240079999999</v>
+      </c>
+      <c r="W17" s="8">
         <v>5.31</v>
       </c>
-      <c r="U17" s="8">
+      <c r="X17" s="8">
         <v>99.73</v>
       </c>
-      <c r="V17" s="8">
+      <c r="Y17" s="8">
         <v>19.3</v>
       </c>
-      <c r="W17" s="8">
+      <c r="Z17" s="8">
         <v>28.9</v>
       </c>
-      <c r="X17" s="8">
+      <c r="AA17" s="8">
         <v>1.85</v>
       </c>
-      <c r="Y17" s="8">
+      <c r="AB17" s="8">
         <v>37.799999999999997</v>
       </c>
-      <c r="Z17" s="8">
+      <c r="AC17" s="8">
         <v>302</v>
       </c>
-      <c r="AA17" s="8">
+      <c r="AD17" s="8">
         <v>5.14</v>
       </c>
-      <c r="AB17" s="8">
+      <c r="AE17" s="8">
         <v>35.9</v>
       </c>
-      <c r="AC17" s="8">
+      <c r="AF17" s="8">
         <v>13.3</v>
       </c>
-      <c r="AD17" s="8">
+      <c r="AG17" s="8">
         <v>14.6</v>
       </c>
-      <c r="AE17" s="8">
+      <c r="AH17" s="8">
         <v>135</v>
       </c>
-      <c r="AF17" s="8">
+      <c r="AI17" s="8">
         <v>25.9</v>
       </c>
-      <c r="AG17" s="8">
+      <c r="AJ17" s="8">
         <v>55.3</v>
       </c>
-      <c r="AH17" s="8">
+      <c r="AK17" s="8">
         <v>155</v>
       </c>
-      <c r="AI17" s="8">
+      <c r="AL17" s="8">
         <v>51.2</v>
       </c>
-      <c r="AJ17" s="8">
+      <c r="AM17" s="8">
         <v>262</v>
       </c>
-      <c r="AK17" s="8">
+      <c r="AN17" s="8">
         <v>3.82</v>
       </c>
-      <c r="AL17" s="8">
+      <c r="AO17" s="8">
         <v>1.48</v>
       </c>
-      <c r="AM17" s="8">
+      <c r="AP17" s="8">
         <v>657</v>
       </c>
-      <c r="AN17" s="8">
+      <c r="AQ17" s="8">
         <v>22.5</v>
       </c>
-      <c r="AO17" s="8">
+      <c r="AR17" s="8">
         <v>64.7</v>
       </c>
-      <c r="AP17" s="8">
+      <c r="AS17" s="8">
         <v>7.19</v>
       </c>
-      <c r="AQ17" s="8">
+      <c r="AT17" s="8">
         <v>32.799999999999997</v>
       </c>
-      <c r="AR17" s="8">
+      <c r="AU17" s="8">
         <v>8.5299999999999994</v>
       </c>
-      <c r="AS17" s="8">
+      <c r="AV17" s="8">
         <v>2.4300000000000002</v>
       </c>
-      <c r="AT17" s="8">
+      <c r="AW17" s="8">
         <v>9.6300000000000008</v>
       </c>
-      <c r="AU17" s="8">
+      <c r="AX17" s="8">
         <v>1.59</v>
       </c>
-      <c r="AV17" s="8">
+      <c r="AY17" s="8">
         <v>9.65</v>
       </c>
-      <c r="AW17" s="8">
+      <c r="AZ17" s="8">
         <v>1.97</v>
       </c>
-      <c r="AX17" s="8">
+      <c r="BA17" s="8">
         <v>5.4</v>
       </c>
-      <c r="AY17" s="8">
+      <c r="BB17" s="8">
         <v>0.77</v>
       </c>
-      <c r="AZ17" s="8">
+      <c r="BC17" s="8">
         <v>4.6900000000000004</v>
       </c>
-      <c r="BA17" s="8">
+      <c r="BD17" s="8">
         <v>0.71</v>
       </c>
-      <c r="BB17" s="8">
+      <c r="BE17" s="8">
         <v>6.84</v>
       </c>
-      <c r="BC17" s="8">
+      <c r="BF17" s="8">
         <v>0.12</v>
       </c>
-      <c r="BD17" s="8">
+      <c r="BG17" s="8">
         <v>0.36</v>
       </c>
-      <c r="BE17" s="8">
+      <c r="BH17" s="8">
         <v>2.61</v>
       </c>
-      <c r="BF17" s="8">
+      <c r="BI17" s="8">
         <v>4.4800000000000004</v>
       </c>
-      <c r="BG17" s="8">
+      <c r="BJ17" s="8">
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:59" s="9" customFormat="1" ht="21">
+    <row r="18" spans="1:62" s="9" customFormat="1" ht="20.5">
       <c r="A18" s="7" t="s">
         <v>80</v>
       </c>
@@ -4313,154 +4528,166 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="K18" s="8">
+        <f t="shared" si="0"/>
+        <v>14923.638160200002</v>
+      </c>
+      <c r="L18" s="8">
         <v>13.86</v>
       </c>
-      <c r="L18" s="8">
+      <c r="M18" s="8">
         <v>13.46</v>
       </c>
-      <c r="M18" s="8">
+      <c r="N18" s="8">
         <v>5.1100000000000003</v>
       </c>
-      <c r="N18" s="8">
+      <c r="O18" s="8">
         <v>0.18</v>
       </c>
-      <c r="O18" s="8">
+      <c r="P18" s="8">
         <v>6.21</v>
       </c>
-      <c r="P18" s="8">
+      <c r="Q18" s="8">
         <v>10.06</v>
       </c>
-      <c r="Q18" s="8">
+      <c r="R18" s="8">
         <v>1.96</v>
       </c>
-      <c r="R18" s="8">
+      <c r="S18" s="8">
         <v>0.69</v>
       </c>
-      <c r="S18" s="8">
+      <c r="T18" s="8">
         <v>0.25</v>
       </c>
-      <c r="T18" s="8">
+      <c r="U18" s="8">
+        <f t="shared" si="1"/>
+        <v>5728.0196612999989</v>
+      </c>
+      <c r="V18" s="8">
+        <f t="shared" si="2"/>
+        <v>1091.0516700000001</v>
+      </c>
+      <c r="W18" s="8">
         <v>2.94</v>
       </c>
-      <c r="U18" s="8">
+      <c r="X18" s="8">
         <v>99.99</v>
       </c>
-      <c r="V18" s="8">
+      <c r="Y18" s="8">
         <v>47.8</v>
       </c>
-      <c r="W18" s="8">
+      <c r="Z18" s="8">
         <v>25.3</v>
       </c>
-      <c r="X18" s="8">
+      <c r="AA18" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Y18" s="8">
+      <c r="AB18" s="8">
         <v>35.200000000000003</v>
       </c>
-      <c r="Z18" s="8">
+      <c r="AC18" s="8">
         <v>367</v>
       </c>
-      <c r="AA18" s="8">
+      <c r="AD18" s="8">
         <v>155</v>
       </c>
-      <c r="AB18" s="8">
+      <c r="AE18" s="8">
         <v>48</v>
       </c>
-      <c r="AC18" s="8">
+      <c r="AF18" s="8">
         <v>84.4</v>
       </c>
-      <c r="AD18" s="8">
+      <c r="AG18" s="8">
         <v>25.8</v>
       </c>
-      <c r="AE18" s="8">
+      <c r="AH18" s="8">
         <v>112</v>
       </c>
-      <c r="AF18" s="8">
+      <c r="AI18" s="8">
         <v>21.3</v>
       </c>
-      <c r="AG18" s="8">
+      <c r="AJ18" s="8">
         <v>33.9</v>
       </c>
-      <c r="AH18" s="8">
+      <c r="AK18" s="8">
         <v>297</v>
       </c>
-      <c r="AI18" s="8">
+      <c r="AL18" s="8">
         <v>34</v>
       </c>
-      <c r="AJ18" s="8">
+      <c r="AM18" s="8">
         <v>163</v>
       </c>
-      <c r="AK18" s="8">
+      <c r="AN18" s="8">
         <v>15.3</v>
       </c>
-      <c r="AL18" s="8">
+      <c r="AO18" s="8">
         <v>0.89</v>
       </c>
-      <c r="AM18" s="8">
+      <c r="AP18" s="8">
         <v>431</v>
       </c>
-      <c r="AN18" s="8">
+      <c r="AQ18" s="8">
         <v>14.9</v>
       </c>
-      <c r="AO18" s="8">
+      <c r="AR18" s="8">
         <v>37</v>
       </c>
-      <c r="AP18" s="8">
+      <c r="AS18" s="8">
         <v>4.9800000000000004</v>
       </c>
-      <c r="AQ18" s="8">
+      <c r="AT18" s="8">
         <v>22.7</v>
       </c>
-      <c r="AR18" s="8">
+      <c r="AU18" s="8">
         <v>5.94</v>
       </c>
-      <c r="AS18" s="8">
+      <c r="AV18" s="8">
         <v>2.19</v>
       </c>
-      <c r="AT18" s="8">
+      <c r="AW18" s="8">
         <v>6.26</v>
       </c>
-      <c r="AU18" s="8">
+      <c r="AX18" s="8">
         <v>1.04</v>
       </c>
-      <c r="AV18" s="8">
+      <c r="AY18" s="8">
         <v>6.46</v>
       </c>
-      <c r="AW18" s="8">
+      <c r="AZ18" s="8">
         <v>1.27</v>
       </c>
-      <c r="AX18" s="8">
+      <c r="BA18" s="8">
         <v>3.44</v>
       </c>
-      <c r="AY18" s="8">
+      <c r="BB18" s="8">
         <v>0.48</v>
       </c>
-      <c r="AZ18" s="8">
+      <c r="BC18" s="8">
         <v>3.08</v>
       </c>
-      <c r="BA18" s="8">
+      <c r="BD18" s="8">
         <v>0.44</v>
       </c>
-      <c r="BB18" s="8">
+      <c r="BE18" s="8">
         <v>4.18</v>
       </c>
-      <c r="BC18" s="8">
+      <c r="BF18" s="8">
         <v>0.93</v>
       </c>
-      <c r="BD18" s="8">
+      <c r="BG18" s="8">
         <v>0.24</v>
       </c>
-      <c r="BE18" s="8">
+      <c r="BH18" s="8">
         <v>2.2200000000000002</v>
       </c>
-      <c r="BF18" s="8">
+      <c r="BI18" s="8">
         <v>2.4300000000000002</v>
       </c>
-      <c r="BG18" s="8">
+      <c r="BJ18" s="8">
         <v>0.51</v>
       </c>
     </row>
-    <row r="19" spans="1:59" s="9" customFormat="1" ht="21">
+    <row r="19" spans="1:62" s="9" customFormat="1" ht="20.5">
       <c r="A19" s="7" t="s">
         <v>80</v>
       </c>
@@ -4492,154 +4719,166 @@
         <v>2.93</v>
       </c>
       <c r="K19" s="8">
+        <f t="shared" si="0"/>
+        <v>17560.746911400001</v>
+      </c>
+      <c r="L19" s="8">
         <v>12.21</v>
       </c>
-      <c r="L19" s="8">
+      <c r="M19" s="8">
         <v>16.93</v>
       </c>
-      <c r="M19" s="8">
+      <c r="N19" s="8">
         <v>8.76</v>
       </c>
-      <c r="N19" s="8">
+      <c r="O19" s="8">
         <v>0.25</v>
       </c>
-      <c r="O19" s="8">
+      <c r="P19" s="8">
         <v>2.89</v>
       </c>
-      <c r="P19" s="8">
+      <c r="Q19" s="8">
         <v>4.57</v>
       </c>
-      <c r="Q19" s="8">
+      <c r="R19" s="8">
         <v>2.54</v>
       </c>
-      <c r="R19" s="8">
+      <c r="S19" s="8">
         <v>1.1499999999999999</v>
       </c>
-      <c r="S19" s="8">
+      <c r="T19" s="8">
         <v>0.62</v>
       </c>
-      <c r="T19" s="8">
+      <c r="U19" s="8">
+        <f t="shared" si="1"/>
+        <v>9546.6994354999988</v>
+      </c>
+      <c r="V19" s="8">
+        <f t="shared" si="2"/>
+        <v>2705.8081416</v>
+      </c>
+      <c r="W19" s="8">
         <v>3.94</v>
       </c>
-      <c r="U19" s="8">
+      <c r="X19" s="8">
         <v>99.96</v>
       </c>
-      <c r="V19" s="8">
+      <c r="Y19" s="8">
         <v>25.3</v>
       </c>
-      <c r="W19" s="8">
+      <c r="Z19" s="8">
         <v>21.6</v>
       </c>
-      <c r="X19" s="8">
+      <c r="AA19" s="8">
         <v>1.99</v>
       </c>
-      <c r="Y19" s="8">
+      <c r="AB19" s="8">
         <v>25.7</v>
       </c>
-      <c r="Z19" s="8">
+      <c r="AC19" s="8">
         <v>148</v>
       </c>
-      <c r="AA19" s="8">
+      <c r="AD19" s="8">
         <v>0.67</v>
       </c>
-      <c r="AB19" s="8">
+      <c r="AE19" s="8">
         <v>25.3</v>
       </c>
-      <c r="AC19" s="8">
+      <c r="AF19" s="8">
         <v>0.67</v>
       </c>
-      <c r="AD19" s="8">
+      <c r="AG19" s="8">
         <v>5.83</v>
       </c>
-      <c r="AE19" s="8">
+      <c r="AH19" s="8">
         <v>113</v>
       </c>
-      <c r="AF19" s="8">
+      <c r="AI19" s="8">
         <v>25.6</v>
       </c>
-      <c r="AG19" s="8">
+      <c r="AJ19" s="8">
         <v>36.6</v>
       </c>
-      <c r="AH19" s="8">
+      <c r="AK19" s="8">
         <v>244</v>
       </c>
-      <c r="AI19" s="8">
+      <c r="AL19" s="8">
         <v>57.7</v>
       </c>
-      <c r="AJ19" s="8">
+      <c r="AM19" s="8">
         <v>323</v>
       </c>
-      <c r="AK19" s="8">
+      <c r="AN19" s="8">
         <v>32.799999999999997</v>
       </c>
-      <c r="AL19" s="8">
+      <c r="AO19" s="8">
         <v>1.03</v>
       </c>
-      <c r="AM19" s="8">
+      <c r="AP19" s="8">
         <v>295</v>
       </c>
-      <c r="AN19" s="8">
+      <c r="AQ19" s="8">
         <v>29.7</v>
       </c>
-      <c r="AO19" s="8">
+      <c r="AR19" s="8">
         <v>66.400000000000006</v>
       </c>
-      <c r="AP19" s="8">
+      <c r="AS19" s="8">
         <v>9.16</v>
       </c>
-      <c r="AQ19" s="8">
+      <c r="AT19" s="8">
         <v>41.1</v>
       </c>
-      <c r="AR19" s="8">
+      <c r="AU19" s="8">
         <v>10.4</v>
       </c>
-      <c r="AS19" s="8">
+      <c r="AV19" s="8">
         <v>3.41</v>
       </c>
-      <c r="AT19" s="8">
+      <c r="AW19" s="8">
         <v>11.1</v>
       </c>
-      <c r="AU19" s="8">
+      <c r="AX19" s="8">
         <v>1.75</v>
       </c>
-      <c r="AV19" s="8">
+      <c r="AY19" s="8">
         <v>10.7</v>
       </c>
-      <c r="AW19" s="8">
+      <c r="AZ19" s="8">
         <v>2.14</v>
       </c>
-      <c r="AX19" s="8">
+      <c r="BA19" s="8">
         <v>5.91</v>
       </c>
-      <c r="AY19" s="8">
+      <c r="BB19" s="8">
         <v>0.84</v>
       </c>
-      <c r="AZ19" s="8">
+      <c r="BC19" s="8">
         <v>5.38</v>
       </c>
-      <c r="BA19" s="8">
+      <c r="BD19" s="8">
         <v>0.8</v>
       </c>
-      <c r="BB19" s="8">
+      <c r="BE19" s="8">
         <v>8.0399999999999991</v>
       </c>
-      <c r="BC19" s="8">
+      <c r="BF19" s="8">
         <v>1.73</v>
       </c>
-      <c r="BD19" s="8">
+      <c r="BG19" s="8">
         <v>0.25</v>
       </c>
-      <c r="BE19" s="8">
+      <c r="BH19" s="8">
         <v>1.55</v>
       </c>
-      <c r="BF19" s="8">
+      <c r="BI19" s="8">
         <v>4.79</v>
       </c>
-      <c r="BG19" s="8">
+      <c r="BJ19" s="8">
         <v>1.06</v>
       </c>
     </row>
-    <row r="20" spans="1:59" s="9" customFormat="1" ht="21">
+    <row r="20" spans="1:62" s="9" customFormat="1" ht="20.5">
       <c r="A20" s="7" t="s">
         <v>81</v>
       </c>
@@ -4671,154 +4910,166 @@
         <v>1.01</v>
       </c>
       <c r="K20" s="8">
+        <f t="shared" si="0"/>
+        <v>6053.3632697999992</v>
+      </c>
+      <c r="L20" s="8">
         <v>14.1</v>
       </c>
-      <c r="L20" s="8">
+      <c r="M20" s="8">
         <v>12.8</v>
       </c>
-      <c r="M20" s="8">
+      <c r="N20" s="8">
         <v>9.52</v>
       </c>
-      <c r="N20" s="8">
+      <c r="O20" s="8">
         <v>0.2</v>
       </c>
-      <c r="O20" s="8">
+      <c r="P20" s="8">
         <v>7.32</v>
       </c>
-      <c r="P20" s="8">
+      <c r="Q20" s="8">
         <v>11.2</v>
       </c>
-      <c r="Q20" s="8">
+      <c r="R20" s="8">
         <v>1.99</v>
       </c>
-      <c r="R20" s="8">
+      <c r="S20" s="8">
         <v>0.4</v>
       </c>
-      <c r="S20" s="8">
+      <c r="T20" s="8">
         <v>0.08</v>
       </c>
-      <c r="T20" s="8">
+      <c r="U20" s="8">
+        <f t="shared" si="1"/>
+        <v>3320.5911080000001</v>
+      </c>
+      <c r="V20" s="8">
+        <f t="shared" si="2"/>
+        <v>349.13653440000007</v>
+      </c>
+      <c r="W20" s="8">
         <v>0.68</v>
       </c>
-      <c r="U20" s="8">
+      <c r="X20" s="8">
         <v>99.6</v>
       </c>
-      <c r="V20" s="8">
+      <c r="Y20" s="8">
         <v>58</v>
       </c>
-      <c r="W20" s="8">
+      <c r="Z20" s="8">
         <v>6.07</v>
       </c>
-      <c r="X20" s="8">
+      <c r="AA20" s="8">
         <v>0.4</v>
       </c>
-      <c r="Y20" s="8">
+      <c r="AB20" s="8">
         <v>43.9</v>
       </c>
-      <c r="Z20" s="8">
+      <c r="AC20" s="8">
         <v>271</v>
       </c>
-      <c r="AA20" s="8">
+      <c r="AD20" s="8">
         <v>250</v>
       </c>
-      <c r="AB20" s="8">
+      <c r="AE20" s="8">
         <v>49.3</v>
       </c>
-      <c r="AC20" s="8">
+      <c r="AF20" s="8">
         <v>117</v>
       </c>
-      <c r="AD20" s="8">
+      <c r="AG20" s="8">
         <v>116</v>
       </c>
-      <c r="AE20" s="8">
+      <c r="AH20" s="8">
         <v>91.4</v>
       </c>
-      <c r="AF20" s="8">
+      <c r="AI20" s="8">
         <v>17.5</v>
       </c>
-      <c r="AG20" s="8">
+      <c r="AJ20" s="8">
         <v>11.5</v>
       </c>
-      <c r="AH20" s="8">
+      <c r="AK20" s="8">
         <v>190</v>
       </c>
-      <c r="AI20" s="8">
+      <c r="AL20" s="8">
         <v>22.5</v>
       </c>
-      <c r="AJ20" s="8">
+      <c r="AM20" s="8">
         <v>69.599999999999994</v>
       </c>
-      <c r="AK20" s="8">
+      <c r="AN20" s="8">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AL20" s="8">
+      <c r="AO20" s="8">
         <v>0.39</v>
       </c>
-      <c r="AM20" s="8">
+      <c r="AP20" s="8">
         <v>94.3</v>
       </c>
-      <c r="AN20" s="8">
+      <c r="AQ20" s="8">
         <v>8.67</v>
       </c>
-      <c r="AO20" s="8">
+      <c r="AR20" s="8">
         <v>16.3</v>
       </c>
-      <c r="AP20" s="8">
+      <c r="AS20" s="8">
         <v>2.69</v>
       </c>
-      <c r="AQ20" s="8">
+      <c r="AT20" s="8">
         <v>12.4</v>
       </c>
-      <c r="AR20" s="8">
+      <c r="AU20" s="8">
         <v>3.18</v>
       </c>
-      <c r="AS20" s="8">
+      <c r="AV20" s="8">
         <v>1.08</v>
       </c>
-      <c r="AT20" s="8">
+      <c r="AW20" s="8">
         <v>3.69</v>
       </c>
-      <c r="AU20" s="8">
+      <c r="AX20" s="8">
         <v>0.65</v>
       </c>
-      <c r="AV20" s="8">
+      <c r="AY20" s="8">
         <v>4.1399999999999997</v>
       </c>
-      <c r="AW20" s="8">
+      <c r="AZ20" s="8">
         <v>0.85</v>
       </c>
-      <c r="AX20" s="8">
+      <c r="BA20" s="8">
         <v>2.35</v>
       </c>
-      <c r="AY20" s="8">
+      <c r="BB20" s="8">
         <v>0.35</v>
       </c>
-      <c r="AZ20" s="8">
+      <c r="BC20" s="8">
         <v>2.21</v>
       </c>
-      <c r="BA20" s="8">
+      <c r="BD20" s="8">
         <v>0.34</v>
       </c>
-      <c r="BB20" s="8">
+      <c r="BE20" s="8">
         <v>2.0699999999999998</v>
       </c>
-      <c r="BC20" s="8">
+      <c r="BF20" s="8">
         <v>0.28999999999999998</v>
       </c>
-      <c r="BD20" s="8">
+      <c r="BG20" s="8">
         <v>0.1</v>
       </c>
-      <c r="BE20" s="8">
+      <c r="BH20" s="8">
         <v>1.94</v>
       </c>
-      <c r="BF20" s="8">
+      <c r="BI20" s="8">
         <v>1.08</v>
       </c>
-      <c r="BG20" s="8">
+      <c r="BJ20" s="8">
         <v>0.25</v>
       </c>
     </row>
-    <row r="21" spans="1:59" s="9" customFormat="1" ht="21">
+    <row r="21" spans="1:62" s="9" customFormat="1" ht="20.5">
       <c r="A21" s="7" t="s">
         <v>81</v>
       </c>
@@ -4850,154 +5101,166 @@
         <v>0.97</v>
       </c>
       <c r="K21" s="8">
+        <f t="shared" si="0"/>
+        <v>5813.6261106000002</v>
+      </c>
+      <c r="L21" s="8">
         <v>14</v>
       </c>
-      <c r="L21" s="8">
+      <c r="M21" s="8">
         <v>12.4</v>
       </c>
-      <c r="M21" s="8">
+      <c r="N21" s="8">
         <v>9.3000000000000007</v>
       </c>
-      <c r="N21" s="8">
+      <c r="O21" s="8">
         <v>0.2</v>
       </c>
-      <c r="O21" s="8">
+      <c r="P21" s="8">
         <v>7.65</v>
       </c>
-      <c r="P21" s="8">
+      <c r="Q21" s="8">
         <v>11.6</v>
       </c>
-      <c r="Q21" s="8">
+      <c r="R21" s="8">
         <v>1.92</v>
       </c>
-      <c r="R21" s="8">
+      <c r="S21" s="8">
         <v>0.39</v>
       </c>
-      <c r="S21" s="8">
+      <c r="T21" s="8">
         <v>0.08</v>
       </c>
-      <c r="T21" s="8">
+      <c r="U21" s="8">
+        <f t="shared" si="1"/>
+        <v>3237.5763302999999</v>
+      </c>
+      <c r="V21" s="8">
+        <f t="shared" si="2"/>
+        <v>349.13653440000007</v>
+      </c>
+      <c r="W21" s="8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="U21" s="8">
+      <c r="X21" s="8">
         <v>99.3</v>
       </c>
-      <c r="V21" s="8">
+      <c r="Y21" s="8">
         <v>60</v>
       </c>
-      <c r="W21" s="8">
+      <c r="Z21" s="8">
         <v>5.31</v>
       </c>
-      <c r="X21" s="8">
+      <c r="AA21" s="8">
         <v>0.36</v>
       </c>
-      <c r="Y21" s="8">
+      <c r="AB21" s="8">
         <v>45.4</v>
       </c>
-      <c r="Z21" s="8">
+      <c r="AC21" s="8">
         <v>277</v>
       </c>
-      <c r="AA21" s="8">
+      <c r="AD21" s="8">
         <v>287</v>
       </c>
-      <c r="AB21" s="8">
+      <c r="AE21" s="8">
         <v>50</v>
       </c>
-      <c r="AC21" s="8">
+      <c r="AF21" s="8">
         <v>102</v>
       </c>
-      <c r="AD21" s="8">
+      <c r="AG21" s="8">
         <v>103</v>
       </c>
-      <c r="AE21" s="8">
+      <c r="AH21" s="8">
         <v>84</v>
       </c>
-      <c r="AF21" s="8">
+      <c r="AI21" s="8">
         <v>17.5</v>
       </c>
-      <c r="AG21" s="8">
+      <c r="AJ21" s="8">
         <v>13.5</v>
       </c>
-      <c r="AH21" s="8">
+      <c r="AK21" s="8">
         <v>186</v>
       </c>
-      <c r="AI21" s="8">
+      <c r="AL21" s="8">
         <v>20.2</v>
       </c>
-      <c r="AJ21" s="8">
+      <c r="AM21" s="8">
         <v>62</v>
       </c>
-      <c r="AK21" s="8">
+      <c r="AN21" s="8">
         <v>3.82</v>
       </c>
-      <c r="AL21" s="8">
+      <c r="AO21" s="8">
         <v>0.51</v>
       </c>
-      <c r="AM21" s="8">
+      <c r="AP21" s="8">
         <v>91.4</v>
       </c>
-      <c r="AN21" s="8">
+      <c r="AQ21" s="8">
         <v>6.59</v>
       </c>
-      <c r="AO21" s="8">
+      <c r="AR21" s="8">
         <v>13.7</v>
       </c>
-      <c r="AP21" s="8">
+      <c r="AS21" s="8">
         <v>2.19</v>
       </c>
-      <c r="AQ21" s="8">
+      <c r="AT21" s="8">
         <v>10</v>
       </c>
-      <c r="AR21" s="8">
+      <c r="AU21" s="8">
         <v>2.67</v>
       </c>
-      <c r="AS21" s="8">
+      <c r="AV21" s="8">
         <v>0.95</v>
       </c>
-      <c r="AT21" s="8">
+      <c r="AW21" s="8">
         <v>3.26</v>
       </c>
-      <c r="AU21" s="8">
+      <c r="AX21" s="8">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AV21" s="8">
+      <c r="AY21" s="8">
         <v>3.52</v>
       </c>
-      <c r="AW21" s="8">
+      <c r="AZ21" s="8">
         <v>0.74</v>
       </c>
-      <c r="AX21" s="8">
+      <c r="BA21" s="8">
         <v>2.1</v>
       </c>
-      <c r="AY21" s="8">
+      <c r="BB21" s="8">
         <v>0.32</v>
       </c>
-      <c r="AZ21" s="8">
+      <c r="BC21" s="8">
         <v>2</v>
       </c>
-      <c r="BA21" s="8">
+      <c r="BD21" s="8">
         <v>0.3</v>
       </c>
-      <c r="BB21" s="8">
+      <c r="BE21" s="8">
         <v>1.83</v>
       </c>
-      <c r="BC21" s="8">
+      <c r="BF21" s="8">
         <v>0.26</v>
       </c>
-      <c r="BD21" s="8">
+      <c r="BG21" s="8">
         <v>0.09</v>
       </c>
-      <c r="BE21" s="8">
+      <c r="BH21" s="8">
         <v>1.77</v>
       </c>
-      <c r="BF21" s="8">
+      <c r="BI21" s="8">
         <v>0.87</v>
       </c>
-      <c r="BG21" s="8">
+      <c r="BJ21" s="8">
         <v>0.21</v>
       </c>
     </row>
-    <row r="22" spans="1:59" s="9" customFormat="1" ht="21">
+    <row r="22" spans="1:62" s="9" customFormat="1" ht="20.5">
       <c r="A22" s="7" t="s">
         <v>81</v>
       </c>
@@ -5029,154 +5292,166 @@
         <v>1.19</v>
       </c>
       <c r="K22" s="8">
-        <v>13.9</v>
+        <f t="shared" si="0"/>
+        <v>7132.180486199999</v>
       </c>
       <c r="L22" s="8">
         <v>13.9</v>
       </c>
       <c r="M22" s="8">
+        <v>13.9</v>
+      </c>
+      <c r="N22" s="8">
         <v>9.81</v>
       </c>
-      <c r="N22" s="8">
+      <c r="O22" s="8">
         <v>0.21</v>
       </c>
-      <c r="O22" s="8">
+      <c r="P22" s="8">
         <v>6.51</v>
       </c>
-      <c r="P22" s="8">
+      <c r="Q22" s="8">
         <v>10.8</v>
       </c>
-      <c r="Q22" s="8">
+      <c r="R22" s="8">
         <v>2.13</v>
       </c>
-      <c r="R22" s="8">
+      <c r="S22" s="8">
         <v>0.45</v>
       </c>
-      <c r="S22" s="8">
+      <c r="T22" s="8">
         <v>0.1</v>
       </c>
-      <c r="T22" s="8">
+      <c r="U22" s="8">
+        <f t="shared" si="1"/>
+        <v>3735.6649965000001</v>
+      </c>
+      <c r="V22" s="8">
+        <f t="shared" si="2"/>
+        <v>436.42066800000003</v>
+      </c>
+      <c r="W22" s="8">
         <v>0.32</v>
       </c>
-      <c r="U22" s="8">
+      <c r="X22" s="8">
         <v>99.5</v>
       </c>
-      <c r="V22" s="8">
+      <c r="Y22" s="8">
         <v>54</v>
       </c>
-      <c r="W22" s="8">
+      <c r="Z22" s="8">
         <v>5.29</v>
       </c>
-      <c r="X22" s="8">
+      <c r="AA22" s="8">
         <v>0.37</v>
       </c>
-      <c r="Y22" s="8">
+      <c r="AB22" s="8">
         <v>42.9</v>
       </c>
-      <c r="Z22" s="8">
+      <c r="AC22" s="8">
         <v>286</v>
       </c>
-      <c r="AA22" s="8">
+      <c r="AD22" s="8">
         <v>262</v>
       </c>
-      <c r="AB22" s="8">
+      <c r="AE22" s="8">
         <v>54.2</v>
       </c>
-      <c r="AC22" s="8">
+      <c r="AF22" s="8">
         <v>89.9</v>
       </c>
-      <c r="AD22" s="8">
+      <c r="AG22" s="8">
         <v>120</v>
       </c>
-      <c r="AE22" s="8">
+      <c r="AH22" s="8">
         <v>87.3</v>
       </c>
-      <c r="AF22" s="8">
+      <c r="AI22" s="8">
         <v>17.2</v>
       </c>
-      <c r="AG22" s="8">
+      <c r="AJ22" s="8">
         <v>12.1</v>
       </c>
-      <c r="AH22" s="8">
+      <c r="AK22" s="8">
         <v>182</v>
       </c>
-      <c r="AI22" s="8">
+      <c r="AL22" s="8">
         <v>20.2</v>
       </c>
-      <c r="AJ22" s="8">
+      <c r="AM22" s="8">
         <v>67.599999999999994</v>
       </c>
-      <c r="AK22" s="8">
+      <c r="AN22" s="8">
         <v>4.07</v>
       </c>
-      <c r="AL22" s="8">
+      <c r="AO22" s="8">
         <v>0.65</v>
       </c>
-      <c r="AM22" s="8">
+      <c r="AP22" s="8">
         <v>96.3</v>
       </c>
-      <c r="AN22" s="8">
+      <c r="AQ22" s="8">
         <v>6.81</v>
       </c>
-      <c r="AO22" s="8">
+      <c r="AR22" s="8">
         <v>15.4</v>
       </c>
-      <c r="AP22" s="8">
+      <c r="AS22" s="8">
         <v>2.36</v>
       </c>
-      <c r="AQ22" s="8">
+      <c r="AT22" s="8">
         <v>10.9</v>
       </c>
-      <c r="AR22" s="8">
+      <c r="AU22" s="8">
         <v>2.84</v>
       </c>
-      <c r="AS22" s="8">
+      <c r="AV22" s="8">
         <v>0.96</v>
       </c>
-      <c r="AT22" s="8">
+      <c r="AW22" s="8">
         <v>3.39</v>
       </c>
-      <c r="AU22" s="8">
+      <c r="AX22" s="8">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AV22" s="8">
+      <c r="AY22" s="8">
         <v>3.73</v>
       </c>
-      <c r="AW22" s="8">
+      <c r="AZ22" s="8">
         <v>0.77</v>
       </c>
-      <c r="AX22" s="8">
+      <c r="BA22" s="8">
         <v>2.17</v>
       </c>
-      <c r="AY22" s="8">
+      <c r="BB22" s="8">
         <v>0.33</v>
       </c>
-      <c r="AZ22" s="8">
+      <c r="BC22" s="8">
         <v>2.13</v>
       </c>
-      <c r="BA22" s="8">
+      <c r="BD22" s="8">
         <v>0.32</v>
       </c>
-      <c r="BB22" s="8">
+      <c r="BE22" s="8">
         <v>1.95</v>
       </c>
-      <c r="BC22" s="8">
+      <c r="BF22" s="8">
         <v>0.28000000000000003</v>
       </c>
-      <c r="BD22" s="8">
+      <c r="BG22" s="8">
         <v>0.11</v>
       </c>
-      <c r="BE22" s="8">
+      <c r="BH22" s="8">
         <v>1.86</v>
       </c>
-      <c r="BF22" s="8">
+      <c r="BI22" s="8">
         <v>0.98</v>
       </c>
-      <c r="BG22" s="8">
+      <c r="BJ22" s="8">
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="1:59" s="9" customFormat="1" ht="21">
+    <row r="23" spans="1:62" s="9" customFormat="1" ht="20.5">
       <c r="A23" s="7" t="s">
         <v>81</v>
       </c>
@@ -5208,154 +5483,166 @@
         <v>0.97</v>
       </c>
       <c r="K23" s="8">
+        <f t="shared" si="0"/>
+        <v>5813.6261106000002</v>
+      </c>
+      <c r="L23" s="8">
         <v>14</v>
       </c>
-      <c r="L23" s="8">
+      <c r="M23" s="8">
         <v>12.5</v>
       </c>
-      <c r="M23" s="8">
+      <c r="N23" s="8">
         <v>13.6</v>
       </c>
-      <c r="N23" s="8">
+      <c r="O23" s="8">
         <v>0.2</v>
       </c>
-      <c r="O23" s="8">
+      <c r="P23" s="8">
         <v>7.7</v>
       </c>
-      <c r="P23" s="8">
+      <c r="Q23" s="8">
         <v>11.4</v>
       </c>
-      <c r="Q23" s="8">
+      <c r="R23" s="8">
         <v>2.04</v>
       </c>
-      <c r="R23" s="8">
+      <c r="S23" s="8">
         <v>0.47</v>
       </c>
-      <c r="S23" s="8">
+      <c r="T23" s="8">
         <v>0.08</v>
       </c>
-      <c r="T23" s="8">
+      <c r="U23" s="8">
+        <f t="shared" si="1"/>
+        <v>3901.6945518999996</v>
+      </c>
+      <c r="V23" s="8">
+        <f t="shared" si="2"/>
+        <v>349.13653440000007</v>
+      </c>
+      <c r="W23" s="8">
         <v>0.42</v>
       </c>
-      <c r="U23" s="8">
+      <c r="X23" s="8">
         <v>99.3</v>
       </c>
-      <c r="V23" s="8">
+      <c r="Y23" s="8">
         <v>51</v>
       </c>
-      <c r="W23" s="8">
+      <c r="Z23" s="8">
         <v>3.81</v>
       </c>
-      <c r="X23" s="8">
+      <c r="AA23" s="8">
         <v>0.46</v>
       </c>
-      <c r="Y23" s="8">
+      <c r="AB23" s="8">
         <v>42.2</v>
       </c>
-      <c r="Z23" s="8">
+      <c r="AC23" s="8">
         <v>317</v>
       </c>
-      <c r="AA23" s="8">
+      <c r="AD23" s="8">
         <v>173</v>
       </c>
-      <c r="AB23" s="8">
+      <c r="AE23" s="8">
         <v>54.5</v>
       </c>
-      <c r="AC23" s="8">
+      <c r="AF23" s="8">
         <v>71.7</v>
       </c>
-      <c r="AD23" s="8">
+      <c r="AG23" s="8">
         <v>123</v>
       </c>
-      <c r="AE23" s="8">
+      <c r="AH23" s="8">
         <v>104</v>
       </c>
-      <c r="AF23" s="8">
+      <c r="AI23" s="8">
         <v>18.5</v>
       </c>
-      <c r="AG23" s="8">
+      <c r="AJ23" s="8">
         <v>15.8</v>
       </c>
-      <c r="AH23" s="8">
+      <c r="AK23" s="8">
         <v>195</v>
       </c>
-      <c r="AI23" s="8">
+      <c r="AL23" s="8">
         <v>23.3</v>
       </c>
-      <c r="AJ23" s="8">
+      <c r="AM23" s="8">
         <v>85.7</v>
       </c>
-      <c r="AK23" s="8">
+      <c r="AN23" s="8">
         <v>5.08</v>
       </c>
-      <c r="AL23" s="8">
+      <c r="AO23" s="8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AM23" s="8">
+      <c r="AP23" s="8">
         <v>138</v>
       </c>
-      <c r="AN23" s="8">
+      <c r="AQ23" s="8">
         <v>8.8000000000000007</v>
       </c>
-      <c r="AO23" s="8">
+      <c r="AR23" s="8">
         <v>18.7</v>
       </c>
-      <c r="AP23" s="8">
+      <c r="AS23" s="8">
         <v>2.93</v>
       </c>
-      <c r="AQ23" s="8">
+      <c r="AT23" s="8">
         <v>13</v>
       </c>
-      <c r="AR23" s="8">
+      <c r="AU23" s="8">
         <v>3.45</v>
       </c>
-      <c r="AS23" s="8">
+      <c r="AV23" s="8">
         <v>1.1100000000000001</v>
       </c>
-      <c r="AT23" s="8">
+      <c r="AW23" s="8">
         <v>3.98</v>
       </c>
-      <c r="AU23" s="8">
+      <c r="AX23" s="8">
         <v>0.69</v>
       </c>
-      <c r="AV23" s="8">
+      <c r="AY23" s="8">
         <v>4.53</v>
       </c>
-      <c r="AW23" s="8">
+      <c r="AZ23" s="8">
         <v>0.92</v>
       </c>
-      <c r="AX23" s="8">
+      <c r="BA23" s="8">
         <v>2.56</v>
       </c>
-      <c r="AY23" s="8">
+      <c r="BB23" s="8">
         <v>0.39</v>
       </c>
-      <c r="AZ23" s="8">
+      <c r="BC23" s="8">
         <v>2.52</v>
       </c>
-      <c r="BA23" s="8">
+      <c r="BD23" s="8">
         <v>0.38</v>
       </c>
-      <c r="BB23" s="8">
+      <c r="BE23" s="8">
         <v>2.44</v>
       </c>
-      <c r="BC23" s="8">
+      <c r="BF23" s="8">
         <v>0.35</v>
       </c>
-      <c r="BD23" s="8">
+      <c r="BG23" s="8">
         <v>0.19</v>
       </c>
-      <c r="BE23" s="8">
+      <c r="BH23" s="8">
         <v>2.46</v>
       </c>
-      <c r="BF23" s="8">
+      <c r="BI23" s="8">
         <v>1.38</v>
       </c>
-      <c r="BG23" s="8">
+      <c r="BJ23" s="8">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:59" s="9" customFormat="1" ht="21">
+    <row r="24" spans="1:62" s="9" customFormat="1" ht="20.5">
       <c r="A24" s="7" t="s">
         <v>81</v>
       </c>
@@ -5387,154 +5674,166 @@
         <v>1.04</v>
       </c>
       <c r="K24" s="8">
+        <f t="shared" si="0"/>
+        <v>6233.1661391999996</v>
+      </c>
+      <c r="L24" s="8">
         <v>14.4</v>
       </c>
-      <c r="L24" s="8">
+      <c r="M24" s="8">
         <v>12.4</v>
       </c>
-      <c r="M24" s="8">
+      <c r="N24" s="8">
         <v>9.34</v>
       </c>
-      <c r="N24" s="8">
+      <c r="O24" s="8">
         <v>0.19</v>
       </c>
-      <c r="O24" s="8">
+      <c r="P24" s="8">
         <v>6.72</v>
       </c>
-      <c r="P24" s="8">
+      <c r="Q24" s="8">
         <v>10.4</v>
       </c>
-      <c r="Q24" s="8">
+      <c r="R24" s="8">
         <v>2.38</v>
       </c>
-      <c r="R24" s="8">
+      <c r="S24" s="8">
         <v>0.5</v>
       </c>
-      <c r="S24" s="8">
+      <c r="T24" s="8">
         <v>0.1</v>
       </c>
-      <c r="T24" s="8">
+      <c r="U24" s="8">
+        <f t="shared" si="1"/>
+        <v>4150.7388849999998</v>
+      </c>
+      <c r="V24" s="8">
+        <f t="shared" si="2"/>
+        <v>436.42066800000003</v>
+      </c>
+      <c r="W24" s="8">
         <v>1.08</v>
       </c>
-      <c r="U24" s="8">
+      <c r="X24" s="8">
         <v>99.6</v>
       </c>
-      <c r="V24" s="8">
+      <c r="Y24" s="8">
         <v>56</v>
       </c>
-      <c r="W24" s="8">
+      <c r="Z24" s="8">
         <v>3.74</v>
       </c>
-      <c r="X24" s="8">
+      <c r="AA24" s="8">
         <v>0.51</v>
       </c>
-      <c r="Y24" s="8">
+      <c r="AB24" s="8">
         <v>36.700000000000003</v>
       </c>
-      <c r="Z24" s="8">
+      <c r="AC24" s="8">
         <v>252</v>
       </c>
-      <c r="AA24" s="8">
+      <c r="AD24" s="8">
         <v>102</v>
       </c>
-      <c r="AB24" s="8">
+      <c r="AE24" s="8">
         <v>49.8</v>
       </c>
-      <c r="AC24" s="8">
+      <c r="AF24" s="8">
         <v>68.8</v>
       </c>
-      <c r="AD24" s="8">
+      <c r="AG24" s="8">
         <v>87.9</v>
       </c>
-      <c r="AE24" s="8">
+      <c r="AH24" s="8">
         <v>85.5</v>
       </c>
-      <c r="AF24" s="8">
+      <c r="AI24" s="8">
         <v>18.600000000000001</v>
       </c>
-      <c r="AG24" s="8">
+      <c r="AJ24" s="8">
         <v>15</v>
       </c>
-      <c r="AH24" s="8">
+      <c r="AK24" s="8">
         <v>232</v>
       </c>
-      <c r="AI24" s="8">
+      <c r="AL24" s="8">
         <v>19.8</v>
       </c>
-      <c r="AJ24" s="8">
+      <c r="AM24" s="8">
         <v>78.8</v>
       </c>
-      <c r="AK24" s="8">
+      <c r="AN24" s="8">
         <v>4.4400000000000004</v>
       </c>
-      <c r="AL24" s="8">
+      <c r="AO24" s="8">
         <v>0.34</v>
       </c>
-      <c r="AM24" s="8">
+      <c r="AP24" s="8">
         <v>170</v>
       </c>
-      <c r="AN24" s="8">
+      <c r="AQ24" s="8">
         <v>6.82</v>
       </c>
-      <c r="AO24" s="8">
+      <c r="AR24" s="8">
         <v>15.7</v>
       </c>
-      <c r="AP24" s="8">
+      <c r="AS24" s="8">
         <v>2.2599999999999998</v>
       </c>
-      <c r="AQ24" s="8">
+      <c r="AT24" s="8">
         <v>10.3</v>
       </c>
-      <c r="AR24" s="8">
+      <c r="AU24" s="8">
         <v>2.88</v>
       </c>
-      <c r="AS24" s="8">
+      <c r="AV24" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AT24" s="8">
+      <c r="AW24" s="8">
         <v>3.4</v>
       </c>
-      <c r="AU24" s="8">
+      <c r="AX24" s="8">
         <v>0.59</v>
       </c>
-      <c r="AV24" s="8">
+      <c r="AY24" s="8">
         <v>3.6</v>
       </c>
-      <c r="AW24" s="8">
+      <c r="AZ24" s="8">
         <v>0.77</v>
       </c>
-      <c r="AX24" s="8">
+      <c r="BA24" s="8">
         <v>2.12</v>
       </c>
-      <c r="AY24" s="8">
+      <c r="BB24" s="8">
         <v>0.31</v>
       </c>
-      <c r="AZ24" s="8">
+      <c r="BC24" s="8">
         <v>1.98</v>
       </c>
-      <c r="BA24" s="8">
+      <c r="BD24" s="8">
         <v>0.3</v>
       </c>
-      <c r="BB24" s="8">
+      <c r="BE24" s="8">
         <v>2.34</v>
       </c>
-      <c r="BC24" s="8">
+      <c r="BF24" s="8">
         <v>0.32</v>
       </c>
-      <c r="BD24" s="8">
+      <c r="BG24" s="8">
         <v>0.1</v>
       </c>
-      <c r="BE24" s="8">
+      <c r="BH24" s="8">
         <v>3.92</v>
       </c>
-      <c r="BF24" s="8">
+      <c r="BI24" s="8">
         <v>2.4700000000000002</v>
       </c>
-      <c r="BG24" s="8">
+      <c r="BJ24" s="8">
         <v>0.47</v>
       </c>
     </row>
-    <row r="25" spans="1:59" s="9" customFormat="1" ht="21">
+    <row r="25" spans="1:62" s="9" customFormat="1" ht="20.5">
       <c r="A25" s="7" t="s">
         <v>81</v>
       </c>
@@ -5566,154 +5865,166 @@
         <v>0.94</v>
       </c>
       <c r="K25" s="8">
+        <f t="shared" si="0"/>
+        <v>5633.8232411999988</v>
+      </c>
+      <c r="L25" s="8">
         <v>14.3</v>
       </c>
-      <c r="L25" s="8">
+      <c r="M25" s="8">
         <v>11.8</v>
       </c>
-      <c r="M25" s="8">
+      <c r="N25" s="8">
         <v>9.64</v>
       </c>
-      <c r="N25" s="8">
+      <c r="O25" s="8">
         <v>0.19</v>
       </c>
-      <c r="O25" s="8">
+      <c r="P25" s="8">
         <v>7.08</v>
       </c>
-      <c r="P25" s="8">
+      <c r="Q25" s="8">
         <v>10.4</v>
       </c>
-      <c r="Q25" s="8">
+      <c r="R25" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R25" s="8">
+      <c r="S25" s="8">
         <v>0.69</v>
       </c>
-      <c r="S25" s="8">
+      <c r="T25" s="8">
         <v>0.09</v>
       </c>
-      <c r="T25" s="8">
+      <c r="U25" s="8">
+        <f t="shared" si="1"/>
+        <v>5728.0196612999989</v>
+      </c>
+      <c r="V25" s="8">
+        <f t="shared" si="2"/>
+        <v>392.77860120000003</v>
+      </c>
+      <c r="W25" s="8">
         <v>0.86</v>
       </c>
-      <c r="U25" s="8">
+      <c r="X25" s="8">
         <v>99.4</v>
       </c>
-      <c r="V25" s="8">
+      <c r="Y25" s="8">
         <v>57</v>
       </c>
-      <c r="W25" s="8">
+      <c r="Z25" s="8">
         <v>14.8</v>
       </c>
-      <c r="X25" s="8">
+      <c r="AA25" s="8">
         <v>0.9</v>
       </c>
-      <c r="Y25" s="8">
+      <c r="AB25" s="8">
         <v>45.5</v>
       </c>
-      <c r="Z25" s="8">
+      <c r="AC25" s="8">
         <v>308</v>
       </c>
-      <c r="AA25" s="8">
+      <c r="AD25" s="8">
         <v>168</v>
       </c>
-      <c r="AB25" s="8">
+      <c r="AE25" s="8">
         <v>61.7</v>
       </c>
-      <c r="AC25" s="8">
+      <c r="AF25" s="8">
         <v>87.5</v>
       </c>
-      <c r="AD25" s="8">
+      <c r="AG25" s="8">
         <v>100</v>
       </c>
-      <c r="AE25" s="8">
+      <c r="AH25" s="8">
         <v>104</v>
       </c>
-      <c r="AF25" s="8">
+      <c r="AI25" s="8">
         <v>21.7</v>
       </c>
-      <c r="AG25" s="8">
+      <c r="AJ25" s="8">
         <v>34.299999999999997</v>
       </c>
-      <c r="AH25" s="8">
+      <c r="AK25" s="8">
         <v>298</v>
       </c>
-      <c r="AI25" s="8">
+      <c r="AL25" s="8">
         <v>21</v>
       </c>
-      <c r="AJ25" s="8">
+      <c r="AM25" s="8">
         <v>78.8</v>
       </c>
-      <c r="AK25" s="8">
+      <c r="AN25" s="8">
         <v>4.9400000000000004</v>
       </c>
-      <c r="AL25" s="8">
+      <c r="AO25" s="8">
         <v>1.92</v>
       </c>
-      <c r="AM25" s="8">
+      <c r="AP25" s="8">
         <v>188</v>
       </c>
-      <c r="AN25" s="8">
+      <c r="AQ25" s="8">
         <v>11.6</v>
       </c>
-      <c r="AO25" s="8">
+      <c r="AR25" s="8">
         <v>22.9</v>
       </c>
-      <c r="AP25" s="8">
+      <c r="AS25" s="8">
         <v>3.26</v>
       </c>
-      <c r="AQ25" s="8">
+      <c r="AT25" s="8">
         <v>14</v>
       </c>
-      <c r="AR25" s="8">
+      <c r="AU25" s="8">
         <v>3.52</v>
       </c>
-      <c r="AS25" s="8">
+      <c r="AV25" s="8">
         <v>1.2</v>
       </c>
-      <c r="AT25" s="8">
+      <c r="AW25" s="8">
         <v>3.76</v>
       </c>
-      <c r="AU25" s="8">
+      <c r="AX25" s="8">
         <v>0.62</v>
       </c>
-      <c r="AV25" s="8">
+      <c r="AY25" s="8">
         <v>3.79</v>
       </c>
-      <c r="AW25" s="8">
+      <c r="AZ25" s="8">
         <v>0.79</v>
       </c>
-      <c r="AX25" s="8">
+      <c r="BA25" s="8">
         <v>2.1800000000000002</v>
       </c>
-      <c r="AY25" s="8">
+      <c r="BB25" s="8">
         <v>0.33</v>
       </c>
-      <c r="AZ25" s="8">
+      <c r="BC25" s="8">
         <v>2.02</v>
       </c>
-      <c r="BA25" s="8">
+      <c r="BD25" s="8">
         <v>0.31</v>
       </c>
-      <c r="BB25" s="8">
+      <c r="BE25" s="8">
         <v>2.39</v>
       </c>
-      <c r="BC25" s="8">
+      <c r="BF25" s="8">
         <v>0.33</v>
       </c>
-      <c r="BD25" s="8">
+      <c r="BG25" s="8">
         <v>0.2</v>
       </c>
-      <c r="BE25" s="8">
+      <c r="BH25" s="8">
         <v>3.54</v>
       </c>
-      <c r="BF25" s="8">
+      <c r="BI25" s="8">
         <v>2.3199999999999998</v>
       </c>
-      <c r="BG25" s="8">
+      <c r="BJ25" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:59" s="9" customFormat="1" ht="21">
+    <row r="26" spans="1:62" s="9" customFormat="1" ht="20.5">
       <c r="A26" s="7" t="s">
         <v>81</v>
       </c>
@@ -5745,154 +6056,166 @@
         <v>1.58</v>
       </c>
       <c r="K26" s="8">
+        <f t="shared" si="0"/>
+        <v>9469.6177884000008</v>
+      </c>
+      <c r="L26" s="8">
         <v>13.3</v>
       </c>
-      <c r="L26" s="8">
+      <c r="M26" s="8">
         <v>15.9</v>
       </c>
-      <c r="M26" s="8">
+      <c r="N26" s="8">
         <v>12.1</v>
       </c>
-      <c r="N26" s="8">
+      <c r="O26" s="8">
         <v>0.23</v>
       </c>
-      <c r="O26" s="8">
+      <c r="P26" s="8">
         <v>5.91</v>
       </c>
-      <c r="P26" s="8">
+      <c r="Q26" s="8">
         <v>8.76</v>
       </c>
-      <c r="Q26" s="8">
+      <c r="R26" s="8">
         <v>2.61</v>
       </c>
-      <c r="R26" s="8">
+      <c r="S26" s="8">
         <v>1.1599999999999999</v>
       </c>
-      <c r="S26" s="8">
+      <c r="T26" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="T26" s="8">
+      <c r="U26" s="8">
+        <f t="shared" si="1"/>
+        <v>9629.714213199999</v>
+      </c>
+      <c r="V26" s="8">
+        <f t="shared" si="2"/>
+        <v>610.98893520000013</v>
+      </c>
+      <c r="W26" s="8">
         <v>1.1399999999999999</v>
       </c>
-      <c r="U26" s="8">
+      <c r="X26" s="8">
         <v>99.2</v>
       </c>
-      <c r="V26" s="8">
+      <c r="Y26" s="8">
         <v>47</v>
       </c>
-      <c r="W26" s="8">
+      <c r="Z26" s="8">
         <v>6.71</v>
       </c>
-      <c r="X26" s="8">
+      <c r="AA26" s="8">
         <v>0.64</v>
       </c>
-      <c r="Y26" s="8">
+      <c r="AB26" s="8">
         <v>43.7</v>
       </c>
-      <c r="Z26" s="8">
+      <c r="AC26" s="8">
         <v>363</v>
       </c>
-      <c r="AA26" s="8">
+      <c r="AD26" s="8">
         <v>142</v>
       </c>
-      <c r="AB26" s="8">
+      <c r="AE26" s="8">
         <v>49.1</v>
       </c>
-      <c r="AC26" s="8">
+      <c r="AF26" s="8">
         <v>137</v>
       </c>
-      <c r="AD26" s="8">
+      <c r="AG26" s="8">
         <v>131</v>
       </c>
-      <c r="AE26" s="8">
+      <c r="AH26" s="8">
         <v>124</v>
       </c>
-      <c r="AF26" s="8">
+      <c r="AI26" s="8">
         <v>20.2</v>
       </c>
-      <c r="AG26" s="8">
+      <c r="AJ26" s="8">
         <v>59.7</v>
       </c>
-      <c r="AH26" s="8">
+      <c r="AK26" s="8">
         <v>288</v>
       </c>
-      <c r="AI26" s="8">
+      <c r="AL26" s="8">
         <v>28.5</v>
       </c>
-      <c r="AJ26" s="8">
+      <c r="AM26" s="8">
         <v>102</v>
       </c>
-      <c r="AK26" s="8">
+      <c r="AN26" s="8">
         <v>6.23</v>
       </c>
-      <c r="AL26" s="8">
+      <c r="AO26" s="8">
         <v>1.04</v>
       </c>
-      <c r="AM26" s="8">
+      <c r="AP26" s="8">
         <v>179</v>
       </c>
-      <c r="AN26" s="8">
+      <c r="AQ26" s="8">
         <v>13.1</v>
       </c>
-      <c r="AO26" s="8">
+      <c r="AR26" s="8">
         <v>23.1</v>
       </c>
-      <c r="AP26" s="8">
+      <c r="AS26" s="8">
         <v>3.93</v>
       </c>
-      <c r="AQ26" s="8">
+      <c r="AT26" s="8">
         <v>18</v>
       </c>
-      <c r="AR26" s="8">
+      <c r="AU26" s="8">
         <v>4.75</v>
       </c>
-      <c r="AS26" s="8">
+      <c r="AV26" s="8">
         <v>1.48</v>
       </c>
-      <c r="AT26" s="8">
+      <c r="AW26" s="8">
         <v>5.09</v>
       </c>
-      <c r="AU26" s="8">
+      <c r="AX26" s="8">
         <v>0.9</v>
       </c>
-      <c r="AV26" s="8">
+      <c r="AY26" s="8">
         <v>5.71</v>
       </c>
-      <c r="AW26" s="8">
+      <c r="AZ26" s="8">
         <v>1.18</v>
       </c>
-      <c r="AX26" s="8">
+      <c r="BA26" s="8">
         <v>3.17</v>
       </c>
-      <c r="AY26" s="8">
+      <c r="BB26" s="8">
         <v>0.46</v>
       </c>
-      <c r="AZ26" s="8">
+      <c r="BC26" s="8">
         <v>3</v>
       </c>
-      <c r="BA26" s="8">
+      <c r="BD26" s="8">
         <v>0.47</v>
       </c>
-      <c r="BB26" s="8">
+      <c r="BE26" s="8">
         <v>3.14</v>
       </c>
-      <c r="BC26" s="8">
+      <c r="BF26" s="8">
         <v>0.42</v>
       </c>
-      <c r="BD26" s="8">
+      <c r="BG26" s="8">
         <v>0.32</v>
       </c>
-      <c r="BE26" s="8">
+      <c r="BH26" s="8">
         <v>3.91</v>
       </c>
-      <c r="BF26" s="8">
+      <c r="BI26" s="8">
         <v>2.2599999999999998</v>
       </c>
-      <c r="BG26" s="8">
+      <c r="BJ26" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:59" s="9" customFormat="1" ht="21">
+    <row r="27" spans="1:62" s="9" customFormat="1" ht="20.5">
       <c r="A27" s="7" t="s">
         <v>81</v>
       </c>
@@ -5924,150 +6247,162 @@
         <v>1.54</v>
       </c>
       <c r="K27" s="8">
+        <f t="shared" si="0"/>
+        <v>9229.880629199999</v>
+      </c>
+      <c r="L27" s="8">
         <v>13.4</v>
       </c>
-      <c r="L27" s="8">
+      <c r="M27" s="8">
         <v>15.5</v>
       </c>
-      <c r="M27" s="8">
+      <c r="N27" s="8">
         <v>12.1</v>
       </c>
-      <c r="N27" s="8">
+      <c r="O27" s="8">
         <v>0.22</v>
       </c>
-      <c r="O27" s="8">
+      <c r="P27" s="8">
         <v>5.94</v>
       </c>
-      <c r="P27" s="8">
+      <c r="Q27" s="8">
         <v>9.36</v>
       </c>
-      <c r="Q27" s="8">
+      <c r="R27" s="8">
         <v>2.34</v>
       </c>
-      <c r="R27" s="8">
+      <c r="S27" s="8">
         <v>0.77</v>
       </c>
-      <c r="S27" s="8">
+      <c r="T27" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="T27" s="8">
+      <c r="U27" s="8">
+        <f t="shared" si="1"/>
+        <v>6392.1378828999996</v>
+      </c>
+      <c r="V27" s="8">
+        <f t="shared" si="2"/>
+        <v>610.98893520000013</v>
+      </c>
+      <c r="W27" s="8">
         <v>0.66</v>
       </c>
-      <c r="U27" s="8">
+      <c r="X27" s="8">
         <v>99.2</v>
       </c>
-      <c r="V27" s="8">
+      <c r="Y27" s="8">
         <v>47</v>
       </c>
-      <c r="W27" s="8">
+      <c r="Z27" s="8">
         <v>9.61</v>
       </c>
-      <c r="X27" s="8">
+      <c r="AA27" s="8">
         <v>1.1399999999999999</v>
       </c>
-      <c r="Y27" s="8">
+      <c r="AB27" s="8">
         <v>57.3</v>
       </c>
-      <c r="Z27" s="8">
+      <c r="AC27" s="8">
         <v>539</v>
       </c>
-      <c r="AA27" s="8">
+      <c r="AD27" s="8">
         <v>173</v>
       </c>
-      <c r="AB27" s="8">
+      <c r="AE27" s="8">
         <v>64.7</v>
       </c>
-      <c r="AC27" s="8">
+      <c r="AF27" s="8">
         <v>269</v>
       </c>
-      <c r="AD27" s="8">
+      <c r="AG27" s="8">
         <v>227</v>
       </c>
-      <c r="AE27" s="8">
+      <c r="AH27" s="8">
         <v>143</v>
       </c>
-      <c r="AF27" s="8">
+      <c r="AI27" s="8">
         <v>25</v>
       </c>
-      <c r="AG27" s="8">
+      <c r="AJ27" s="8">
         <v>30.7</v>
       </c>
-      <c r="AH27" s="8">
+      <c r="AK27" s="8">
         <v>284</v>
       </c>
-      <c r="AI27" s="8">
+      <c r="AL27" s="8">
         <v>31.5</v>
       </c>
-      <c r="AJ27" s="8">
+      <c r="AM27" s="8">
         <v>117</v>
       </c>
-      <c r="AK27" s="8">
+      <c r="AN27" s="8">
         <v>6.84</v>
       </c>
-      <c r="AL27" s="8">
+      <c r="AO27" s="8">
         <v>1.02</v>
       </c>
-      <c r="AM27" s="8">
+      <c r="AP27" s="8">
         <v>326</v>
       </c>
-      <c r="AN27" s="8">
+      <c r="AQ27" s="8">
         <v>14</v>
       </c>
-      <c r="AO27" s="8">
+      <c r="AR27" s="8">
         <v>27.4</v>
       </c>
-      <c r="AP27" s="8">
+      <c r="AS27" s="8">
         <v>4.53</v>
       </c>
-      <c r="AQ27" s="8">
+      <c r="AT27" s="8">
         <v>21.5</v>
       </c>
-      <c r="AR27" s="8">
+      <c r="AU27" s="8">
         <v>5.39</v>
       </c>
-      <c r="AS27" s="8">
+      <c r="AV27" s="8">
         <v>1.59</v>
       </c>
-      <c r="AT27" s="8">
+      <c r="AW27" s="8">
         <v>5.67</v>
       </c>
-      <c r="AU27" s="8">
+      <c r="AX27" s="8">
         <v>1.03</v>
       </c>
-      <c r="AV27" s="8">
+      <c r="AY27" s="8">
         <v>6.52</v>
       </c>
-      <c r="AW27" s="8">
+      <c r="AZ27" s="8">
         <v>1.32</v>
       </c>
-      <c r="AX27" s="8">
+      <c r="BA27" s="8">
         <v>3.55</v>
       </c>
-      <c r="AY27" s="8">
+      <c r="BB27" s="8">
         <v>0.53</v>
       </c>
-      <c r="AZ27" s="8">
+      <c r="BC27" s="8">
         <v>3.45</v>
       </c>
-      <c r="BA27" s="8">
+      <c r="BD27" s="8">
         <v>0.54</v>
       </c>
-      <c r="BB27" s="8">
+      <c r="BE27" s="8">
         <v>3.35</v>
       </c>
-      <c r="BC27" s="8">
+      <c r="BF27" s="8">
         <v>0.46</v>
       </c>
-      <c r="BD27" s="8">
+      <c r="BG27" s="8">
         <v>0.15</v>
       </c>
-      <c r="BE27" s="8">
+      <c r="BH27" s="8">
         <v>4.5199999999999996</v>
       </c>
-      <c r="BF27" s="8">
+      <c r="BI27" s="8">
         <v>2.41</v>
       </c>
-      <c r="BG27" s="8">
+      <c r="BJ27" s="8">
         <v>0.5</v>
       </c>
     </row>
@@ -6085,14 +6420,14 @@
       <selection activeCell="A32" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="31.1640625" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" customWidth="1"/>
-    <col min="8" max="8" width="4.83203125" customWidth="1"/>
+    <col min="1" max="1" width="31.15234375" customWidth="1"/>
+    <col min="7" max="7" width="5.69140625" customWidth="1"/>
+    <col min="8" max="8" width="4.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="19">
+    <row r="1" spans="1:58" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
